--- a/Case and Death Graph.xlsx
+++ b/Case and Death Graph.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b8cf4034711392a2/Documents/GitHub/Projects/Sandwich Shop/Sandwich-Shop-Prototype/CoronaGraph/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1398" documentId="14_{171E707D-D3B4-4B7B-ADD4-172CE61009BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D42E4C83-5F5D-4265-84E0-82E1F89AA244}"/>
+  <xr:revisionPtr revIDLastSave="1858" documentId="14_{171E707D-D3B4-4B7B-ADD4-172CE61009BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{9696EB0C-9354-440B-A572-10B6C923E111}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C3F70802-1E02-41A7-8BAF-466810BCCC75}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="151">
   <si>
     <t>25th January</t>
   </si>
@@ -451,6 +451,42 @@
   <si>
     <t>22nd May</t>
   </si>
+  <si>
+    <t>23rd May</t>
+  </si>
+  <si>
+    <t>24th May</t>
+  </si>
+  <si>
+    <t>25th May</t>
+  </si>
+  <si>
+    <t>26th May</t>
+  </si>
+  <si>
+    <t>27th May</t>
+  </si>
+  <si>
+    <t>28th May</t>
+  </si>
+  <si>
+    <t>29th May</t>
+  </si>
+  <si>
+    <t>30th May</t>
+  </si>
+  <si>
+    <t>31st May</t>
+  </si>
+  <si>
+    <t>1st June</t>
+  </si>
+  <si>
+    <t>2nd June</t>
+  </si>
+  <si>
+    <t>3rd June</t>
+  </si>
 </sst>
 </file>
 
@@ -507,7 +543,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -778,19 +814,6 @@
         <color auto="1"/>
       </left>
       <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
       <top/>
       <bottom style="thick">
         <color auto="1"/>
@@ -812,19 +835,6 @@
         <color auto="1"/>
       </right>
       <top/>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
       <bottom style="thick">
         <color auto="1"/>
       </bottom>
@@ -855,19 +865,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -882,7 +879,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -973,19 +970,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -997,13 +988,22 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1015,13 +1015,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1036,28 +1036,16 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1381,8 +1369,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7672421C-C27F-45E7-8E0D-8D21BA1A0A2B}">
   <dimension ref="C1:AG2818"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A90" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A129" sqref="A129"/>
+    <sheetView tabSelected="1" topLeftCell="K119" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AG140" sqref="AG140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1429,134 +1417,134 @@
       <c r="I4" s="7"/>
     </row>
     <row r="5" spans="3:33" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D5" s="49" t="s">
+      <c r="D5" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="61" t="s">
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="62"/>
-      <c r="L5" s="62"/>
-      <c r="M5" s="62"/>
-      <c r="N5" s="62"/>
-      <c r="O5" s="62"/>
-      <c r="P5" s="62"/>
-      <c r="Q5" s="62"/>
-      <c r="R5" s="62"/>
-      <c r="S5" s="62"/>
-      <c r="T5" s="62"/>
-      <c r="U5" s="62"/>
-      <c r="V5" s="62"/>
-      <c r="W5" s="62"/>
-      <c r="X5" s="62"/>
-      <c r="Y5" s="62"/>
-      <c r="Z5" s="62"/>
-      <c r="AA5" s="62"/>
-      <c r="AB5" s="62"/>
-      <c r="AC5" s="62"/>
-      <c r="AD5" s="62"/>
-      <c r="AE5" s="62"/>
-      <c r="AF5" s="62"/>
-      <c r="AG5" s="62"/>
+      <c r="K5" s="61"/>
+      <c r="L5" s="61"/>
+      <c r="M5" s="61"/>
+      <c r="N5" s="61"/>
+      <c r="O5" s="61"/>
+      <c r="P5" s="61"/>
+      <c r="Q5" s="61"/>
+      <c r="R5" s="61"/>
+      <c r="S5" s="61"/>
+      <c r="T5" s="61"/>
+      <c r="U5" s="61"/>
+      <c r="V5" s="61"/>
+      <c r="W5" s="61"/>
+      <c r="X5" s="61"/>
+      <c r="Y5" s="61"/>
+      <c r="Z5" s="61"/>
+      <c r="AA5" s="61"/>
+      <c r="AB5" s="61"/>
+      <c r="AC5" s="61"/>
+      <c r="AD5" s="61"/>
+      <c r="AE5" s="61"/>
+      <c r="AF5" s="61"/>
+      <c r="AG5" s="61"/>
     </row>
     <row r="6" spans="3:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D6" s="52"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="54"/>
-      <c r="J6" s="63"/>
-      <c r="K6" s="64"/>
-      <c r="L6" s="64"/>
-      <c r="M6" s="64"/>
-      <c r="N6" s="64"/>
-      <c r="O6" s="64"/>
-      <c r="P6" s="64"/>
-      <c r="Q6" s="64"/>
-      <c r="R6" s="64"/>
-      <c r="S6" s="64"/>
-      <c r="T6" s="64"/>
-      <c r="U6" s="64"/>
-      <c r="V6" s="64"/>
-      <c r="W6" s="64"/>
-      <c r="X6" s="64"/>
-      <c r="Y6" s="64"/>
-      <c r="Z6" s="64"/>
-      <c r="AA6" s="64"/>
-      <c r="AB6" s="64"/>
-      <c r="AC6" s="64"/>
-      <c r="AD6" s="64"/>
-      <c r="AE6" s="64"/>
-      <c r="AF6" s="64"/>
-      <c r="AG6" s="64"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="63"/>
+      <c r="L6" s="63"/>
+      <c r="M6" s="63"/>
+      <c r="N6" s="63"/>
+      <c r="O6" s="63"/>
+      <c r="P6" s="63"/>
+      <c r="Q6" s="63"/>
+      <c r="R6" s="63"/>
+      <c r="S6" s="63"/>
+      <c r="T6" s="63"/>
+      <c r="U6" s="63"/>
+      <c r="V6" s="63"/>
+      <c r="W6" s="63"/>
+      <c r="X6" s="63"/>
+      <c r="Y6" s="63"/>
+      <c r="Z6" s="63"/>
+      <c r="AA6" s="63"/>
+      <c r="AB6" s="63"/>
+      <c r="AC6" s="63"/>
+      <c r="AD6" s="63"/>
+      <c r="AE6" s="63"/>
+      <c r="AF6" s="63"/>
+      <c r="AG6" s="63"/>
     </row>
     <row r="7" spans="3:33" s="19" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D7" s="55" t="s">
+      <c r="D7" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="56"/>
-      <c r="F7" s="57" t="s">
+      <c r="E7" s="57"/>
+      <c r="F7" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="58"/>
-      <c r="H7" s="57" t="s">
+      <c r="G7" s="59"/>
+      <c r="H7" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="I7" s="58"/>
-      <c r="J7" s="59" t="s">
+      <c r="I7" s="59"/>
+      <c r="J7" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="K7" s="60"/>
-      <c r="L7" s="59" t="s">
+      <c r="K7" s="47"/>
+      <c r="L7" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="M7" s="60"/>
-      <c r="N7" s="59" t="s">
+      <c r="M7" s="47"/>
+      <c r="N7" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="O7" s="60"/>
-      <c r="P7" s="59" t="s">
+      <c r="O7" s="47"/>
+      <c r="P7" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="Q7" s="60"/>
-      <c r="R7" s="59" t="s">
+      <c r="Q7" s="47"/>
+      <c r="R7" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="S7" s="60"/>
-      <c r="T7" s="59" t="s">
+      <c r="S7" s="47"/>
+      <c r="T7" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="U7" s="60"/>
-      <c r="V7" s="59" t="s">
+      <c r="U7" s="47"/>
+      <c r="V7" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="W7" s="60"/>
-      <c r="X7" s="59" t="s">
+      <c r="W7" s="47"/>
+      <c r="X7" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="Y7" s="60"/>
-      <c r="Z7" s="59" t="s">
+      <c r="Y7" s="47"/>
+      <c r="Z7" s="46" t="s">
         <v>90</v>
       </c>
-      <c r="AA7" s="60"/>
-      <c r="AB7" s="59" t="s">
+      <c r="AA7" s="47"/>
+      <c r="AB7" s="46" t="s">
         <v>91</v>
       </c>
-      <c r="AC7" s="60"/>
-      <c r="AD7" s="59" t="s">
+      <c r="AC7" s="47"/>
+      <c r="AD7" s="46" t="s">
         <v>92</v>
       </c>
-      <c r="AE7" s="60"/>
-      <c r="AF7" s="59" t="s">
+      <c r="AE7" s="47"/>
+      <c r="AF7" s="46" t="s">
         <v>93</v>
       </c>
-      <c r="AG7" s="60"/>
+      <c r="AG7" s="47"/>
     </row>
     <row r="8" spans="3:33" s="1" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D8" s="17" t="s">
@@ -1571,13 +1559,13 @@
       <c r="G8" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="43" t="s">
+      <c r="H8" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="I8" s="44" t="s">
+      <c r="I8" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="39" t="s">
+      <c r="J8" s="38" t="s">
         <v>9</v>
       </c>
       <c r="K8" s="23" t="s">
@@ -1619,34 +1607,34 @@
       <c r="W8" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="X8" s="42" t="s">
+      <c r="X8" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="Y8" s="41" t="s">
+      <c r="Y8" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="Z8" s="45" t="s">
+      <c r="Z8" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="AA8" s="41" t="s">
+      <c r="AA8" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="AB8" s="45" t="s">
+      <c r="AB8" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="AC8" s="41" t="s">
+      <c r="AC8" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="AD8" s="45" t="s">
+      <c r="AD8" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="AE8" s="41" t="s">
+      <c r="AE8" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="AF8" s="45" t="s">
+      <c r="AF8" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="AG8" s="41" t="s">
+      <c r="AG8" s="39" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1672,7 +1660,7 @@
       <c r="I9" s="13">
         <v>0</v>
       </c>
-      <c r="J9" s="39">
+      <c r="J9" s="38">
         <v>0</v>
       </c>
       <c r="K9" s="23">
@@ -1738,7 +1726,7 @@
       <c r="AE9" s="16">
         <v>0</v>
       </c>
-      <c r="AF9" s="46">
+      <c r="AF9" s="44">
         <v>0</v>
       </c>
       <c r="AG9" s="16">
@@ -1833,7 +1821,7 @@
       <c r="AE10" s="29">
         <v>0</v>
       </c>
-      <c r="AF10" s="47">
+      <c r="AF10" s="45">
         <v>0</v>
       </c>
       <c r="AG10" s="29">
@@ -1928,7 +1916,7 @@
       <c r="AE11" s="29">
         <v>0</v>
       </c>
-      <c r="AF11" s="47">
+      <c r="AF11" s="45">
         <v>0</v>
       </c>
       <c r="AG11" s="29">
@@ -2023,7 +2011,7 @@
       <c r="AE12" s="29">
         <v>0</v>
       </c>
-      <c r="AF12" s="47">
+      <c r="AF12" s="45">
         <v>0</v>
       </c>
       <c r="AG12" s="29">
@@ -2118,7 +2106,7 @@
       <c r="AE13" s="29">
         <v>0</v>
       </c>
-      <c r="AF13" s="47">
+      <c r="AF13" s="45">
         <v>0</v>
       </c>
       <c r="AG13" s="29">
@@ -2213,7 +2201,7 @@
       <c r="AE14" s="29">
         <v>0</v>
       </c>
-      <c r="AF14" s="47">
+      <c r="AF14" s="45">
         <v>0</v>
       </c>
       <c r="AG14" s="29">
@@ -2308,7 +2296,7 @@
       <c r="AE15" s="29">
         <v>0</v>
       </c>
-      <c r="AF15" s="47">
+      <c r="AF15" s="45">
         <v>0</v>
       </c>
       <c r="AG15" s="29">
@@ -2403,7 +2391,7 @@
       <c r="AE16" s="29">
         <v>0</v>
       </c>
-      <c r="AF16" s="47">
+      <c r="AF16" s="45">
         <v>0</v>
       </c>
       <c r="AG16" s="29">
@@ -2498,7 +2486,7 @@
       <c r="AE17" s="29">
         <v>0</v>
       </c>
-      <c r="AF17" s="47">
+      <c r="AF17" s="45">
         <v>0</v>
       </c>
       <c r="AG17" s="29">
@@ -2593,7 +2581,7 @@
       <c r="AE18" s="29">
         <v>0</v>
       </c>
-      <c r="AF18" s="47">
+      <c r="AF18" s="45">
         <v>0</v>
       </c>
       <c r="AG18" s="29">
@@ -2688,7 +2676,7 @@
       <c r="AE19" s="29">
         <v>0</v>
       </c>
-      <c r="AF19" s="47">
+      <c r="AF19" s="45">
         <v>0</v>
       </c>
       <c r="AG19" s="29">
@@ -2783,7 +2771,7 @@
       <c r="AE20" s="29">
         <v>0</v>
       </c>
-      <c r="AF20" s="47">
+      <c r="AF20" s="45">
         <v>0</v>
       </c>
       <c r="AG20" s="29">
@@ -2878,7 +2866,7 @@
       <c r="AE21" s="29">
         <v>0</v>
       </c>
-      <c r="AF21" s="47">
+      <c r="AF21" s="45">
         <v>0</v>
       </c>
       <c r="AG21" s="29">
@@ -2973,7 +2961,7 @@
       <c r="AE22" s="29">
         <v>0</v>
       </c>
-      <c r="AF22" s="47">
+      <c r="AF22" s="45">
         <v>0</v>
       </c>
       <c r="AG22" s="29">
@@ -3068,7 +3056,7 @@
       <c r="AE23" s="29">
         <v>0</v>
       </c>
-      <c r="AF23" s="47">
+      <c r="AF23" s="45">
         <v>0</v>
       </c>
       <c r="AG23" s="29">
@@ -3163,7 +3151,7 @@
       <c r="AE24" s="29">
         <v>0</v>
       </c>
-      <c r="AF24" s="47">
+      <c r="AF24" s="45">
         <v>0</v>
       </c>
       <c r="AG24" s="29">
@@ -3258,7 +3246,7 @@
       <c r="AE25" s="29">
         <v>0</v>
       </c>
-      <c r="AF25" s="47">
+      <c r="AF25" s="45">
         <v>0</v>
       </c>
       <c r="AG25" s="29">
@@ -3353,7 +3341,7 @@
       <c r="AE26" s="29">
         <v>0</v>
       </c>
-      <c r="AF26" s="47">
+      <c r="AF26" s="45">
         <v>0</v>
       </c>
       <c r="AG26" s="29">
@@ -3448,7 +3436,7 @@
       <c r="AE27" s="29">
         <v>0</v>
       </c>
-      <c r="AF27" s="47">
+      <c r="AF27" s="45">
         <v>0</v>
       </c>
       <c r="AG27" s="29">
@@ -3543,7 +3531,7 @@
       <c r="AE28" s="29">
         <v>0</v>
       </c>
-      <c r="AF28" s="47">
+      <c r="AF28" s="45">
         <v>0</v>
       </c>
       <c r="AG28" s="29">
@@ -3638,7 +3626,7 @@
       <c r="AE29" s="29">
         <v>0</v>
       </c>
-      <c r="AF29" s="47">
+      <c r="AF29" s="45">
         <v>0</v>
       </c>
       <c r="AG29" s="29">
@@ -3733,7 +3721,7 @@
       <c r="AE30" s="29">
         <v>0</v>
       </c>
-      <c r="AF30" s="47">
+      <c r="AF30" s="45">
         <v>0</v>
       </c>
       <c r="AG30" s="29">
@@ -3828,7 +3816,7 @@
       <c r="AE31" s="29">
         <v>0</v>
       </c>
-      <c r="AF31" s="47">
+      <c r="AF31" s="45">
         <v>0</v>
       </c>
       <c r="AG31" s="29">
@@ -3923,7 +3911,7 @@
       <c r="AE32" s="29">
         <v>0</v>
       </c>
-      <c r="AF32" s="47">
+      <c r="AF32" s="45">
         <v>0</v>
       </c>
       <c r="AG32" s="29">
@@ -4018,7 +4006,7 @@
       <c r="AE33" s="29">
         <v>0</v>
       </c>
-      <c r="AF33" s="47">
+      <c r="AF33" s="45">
         <v>0</v>
       </c>
       <c r="AG33" s="29">
@@ -4113,7 +4101,7 @@
       <c r="AE34" s="29">
         <v>0</v>
       </c>
-      <c r="AF34" s="47">
+      <c r="AF34" s="45">
         <v>0</v>
       </c>
       <c r="AG34" s="29">
@@ -4208,7 +4196,7 @@
       <c r="AE35" s="29">
         <v>0</v>
       </c>
-      <c r="AF35" s="47">
+      <c r="AF35" s="45">
         <v>0</v>
       </c>
       <c r="AG35" s="29">
@@ -4303,7 +4291,7 @@
       <c r="AE36" s="29">
         <v>0</v>
       </c>
-      <c r="AF36" s="47">
+      <c r="AF36" s="45">
         <v>0</v>
       </c>
       <c r="AG36" s="29">
@@ -4398,7 +4386,7 @@
       <c r="AE37" s="29">
         <v>0</v>
       </c>
-      <c r="AF37" s="47">
+      <c r="AF37" s="45">
         <v>0</v>
       </c>
       <c r="AG37" s="29">
@@ -4493,7 +4481,7 @@
       <c r="AE38" s="29">
         <v>0</v>
       </c>
-      <c r="AF38" s="47">
+      <c r="AF38" s="45">
         <v>0</v>
       </c>
       <c r="AG38" s="29">
@@ -4588,7 +4576,7 @@
       <c r="AE39" s="29">
         <v>0</v>
       </c>
-      <c r="AF39" s="47">
+      <c r="AF39" s="45">
         <v>0</v>
       </c>
       <c r="AG39" s="29">
@@ -4683,7 +4671,7 @@
       <c r="AE40" s="29">
         <v>0</v>
       </c>
-      <c r="AF40" s="47">
+      <c r="AF40" s="45">
         <v>0</v>
       </c>
       <c r="AG40" s="29">
@@ -4778,7 +4766,7 @@
       <c r="AE41" s="29">
         <v>0</v>
       </c>
-      <c r="AF41" s="47">
+      <c r="AF41" s="45">
         <v>0</v>
       </c>
       <c r="AG41" s="29">
@@ -4873,7 +4861,7 @@
       <c r="AE42" s="29">
         <v>0</v>
       </c>
-      <c r="AF42" s="47">
+      <c r="AF42" s="45">
         <v>0</v>
       </c>
       <c r="AG42" s="29">
@@ -4968,7 +4956,7 @@
       <c r="AE43" s="29">
         <v>0</v>
       </c>
-      <c r="AF43" s="47">
+      <c r="AF43" s="45">
         <v>0</v>
       </c>
       <c r="AG43" s="29">
@@ -5063,7 +5051,7 @@
       <c r="AE44" s="29">
         <v>0</v>
       </c>
-      <c r="AF44" s="47">
+      <c r="AF44" s="45">
         <v>0</v>
       </c>
       <c r="AG44" s="29">
@@ -5158,7 +5146,7 @@
       <c r="AE45" s="29">
         <v>0</v>
       </c>
-      <c r="AF45" s="47">
+      <c r="AF45" s="45">
         <v>0</v>
       </c>
       <c r="AG45" s="29">
@@ -5253,7 +5241,7 @@
       <c r="AE46" s="29">
         <v>0</v>
       </c>
-      <c r="AF46" s="47">
+      <c r="AF46" s="45">
         <v>0</v>
       </c>
       <c r="AG46" s="29">
@@ -5348,7 +5336,7 @@
       <c r="AE47" s="29">
         <v>0</v>
       </c>
-      <c r="AF47" s="47">
+      <c r="AF47" s="45">
         <v>0</v>
       </c>
       <c r="AG47" s="29">
@@ -5443,7 +5431,7 @@
       <c r="AE48" s="29">
         <v>0</v>
       </c>
-      <c r="AF48" s="47">
+      <c r="AF48" s="45">
         <v>0</v>
       </c>
       <c r="AG48" s="29">
@@ -5538,7 +5526,7 @@
       <c r="AE49" s="29">
         <v>0</v>
       </c>
-      <c r="AF49" s="47">
+      <c r="AF49" s="45">
         <v>1</v>
       </c>
       <c r="AG49" s="29">
@@ -5633,7 +5621,7 @@
       <c r="AE50" s="29">
         <v>0</v>
       </c>
-      <c r="AF50" s="47">
+      <c r="AF50" s="45">
         <v>1</v>
       </c>
       <c r="AG50" s="29">
@@ -5728,7 +5716,7 @@
       <c r="AE51" s="29">
         <v>0</v>
       </c>
-      <c r="AF51" s="47">
+      <c r="AF51" s="45">
         <v>1</v>
       </c>
       <c r="AG51" s="29">
@@ -5823,7 +5811,7 @@
       <c r="AE52" s="29">
         <v>0</v>
       </c>
-      <c r="AF52" s="47">
+      <c r="AF52" s="45">
         <v>1</v>
       </c>
       <c r="AG52" s="29">
@@ -5918,7 +5906,7 @@
       <c r="AE53" s="29">
         <v>0</v>
       </c>
-      <c r="AF53" s="47">
+      <c r="AF53" s="45">
         <v>1</v>
       </c>
       <c r="AG53" s="29">
@@ -6013,7 +6001,7 @@
       <c r="AE54" s="29">
         <v>0</v>
       </c>
-      <c r="AF54" s="47">
+      <c r="AF54" s="45">
         <v>1</v>
       </c>
       <c r="AG54" s="29">
@@ -6108,7 +6096,7 @@
       <c r="AE55" s="29">
         <v>0</v>
       </c>
-      <c r="AF55" s="47">
+      <c r="AF55" s="45">
         <v>1</v>
       </c>
       <c r="AG55" s="29">
@@ -6203,7 +6191,7 @@
       <c r="AE56" s="29">
         <v>0</v>
       </c>
-      <c r="AF56" s="47">
+      <c r="AF56" s="45">
         <v>1</v>
       </c>
       <c r="AG56" s="29">
@@ -6298,7 +6286,7 @@
       <c r="AE57" s="29">
         <v>0</v>
       </c>
-      <c r="AF57" s="47">
+      <c r="AF57" s="45">
         <v>1</v>
       </c>
       <c r="AG57" s="29">
@@ -6393,7 +6381,7 @@
       <c r="AE58" s="29">
         <v>0</v>
       </c>
-      <c r="AF58" s="47">
+      <c r="AF58" s="45">
         <v>3</v>
       </c>
       <c r="AG58" s="29">
@@ -6488,7 +6476,7 @@
       <c r="AE59" s="29">
         <v>0</v>
       </c>
-      <c r="AF59" s="47">
+      <c r="AF59" s="45">
         <v>3</v>
       </c>
       <c r="AG59" s="29">
@@ -6583,7 +6571,7 @@
       <c r="AE60" s="29">
         <v>0</v>
       </c>
-      <c r="AF60" s="47">
+      <c r="AF60" s="45">
         <v>3</v>
       </c>
       <c r="AG60" s="29">
@@ -6678,7 +6666,7 @@
       <c r="AE61" s="29">
         <v>0</v>
       </c>
-      <c r="AF61" s="47">
+      <c r="AF61" s="45">
         <v>3</v>
       </c>
       <c r="AG61" s="29">
@@ -6773,7 +6761,7 @@
       <c r="AE62" s="29">
         <v>0</v>
       </c>
-      <c r="AF62" s="47">
+      <c r="AF62" s="45">
         <v>7</v>
       </c>
       <c r="AG62" s="29">
@@ -6784,36 +6772,36 @@
       <c r="C63" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="D63" s="65"/>
-      <c r="E63" s="66"/>
-      <c r="F63" s="66"/>
-      <c r="G63" s="66"/>
-      <c r="H63" s="66"/>
-      <c r="I63" s="66"/>
-      <c r="J63" s="66"/>
-      <c r="K63" s="66"/>
-      <c r="L63" s="66"/>
-      <c r="M63" s="66"/>
-      <c r="N63" s="66"/>
-      <c r="O63" s="66"/>
-      <c r="P63" s="66"/>
-      <c r="Q63" s="66"/>
-      <c r="R63" s="66"/>
-      <c r="S63" s="66"/>
-      <c r="T63" s="66"/>
-      <c r="U63" s="66"/>
-      <c r="V63" s="66"/>
-      <c r="W63" s="66"/>
-      <c r="X63" s="66"/>
-      <c r="Y63" s="66"/>
-      <c r="Z63" s="66"/>
-      <c r="AA63" s="66"/>
-      <c r="AB63" s="66"/>
-      <c r="AC63" s="66"/>
-      <c r="AD63" s="66"/>
-      <c r="AE63" s="66"/>
-      <c r="AF63" s="66"/>
-      <c r="AG63" s="66"/>
+      <c r="D63" s="48"/>
+      <c r="E63" s="49"/>
+      <c r="F63" s="49"/>
+      <c r="G63" s="49"/>
+      <c r="H63" s="49"/>
+      <c r="I63" s="49"/>
+      <c r="J63" s="49"/>
+      <c r="K63" s="49"/>
+      <c r="L63" s="49"/>
+      <c r="M63" s="49"/>
+      <c r="N63" s="49"/>
+      <c r="O63" s="49"/>
+      <c r="P63" s="49"/>
+      <c r="Q63" s="49"/>
+      <c r="R63" s="49"/>
+      <c r="S63" s="49"/>
+      <c r="T63" s="49"/>
+      <c r="U63" s="49"/>
+      <c r="V63" s="49"/>
+      <c r="W63" s="49"/>
+      <c r="X63" s="49"/>
+      <c r="Y63" s="49"/>
+      <c r="Z63" s="49"/>
+      <c r="AA63" s="49"/>
+      <c r="AB63" s="49"/>
+      <c r="AC63" s="49"/>
+      <c r="AD63" s="49"/>
+      <c r="AE63" s="49"/>
+      <c r="AF63" s="49"/>
+      <c r="AG63" s="49"/>
     </row>
     <row r="64" spans="3:33" s="19" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C64" s="19" t="s">
@@ -6903,7 +6891,7 @@
       <c r="AE64" s="29">
         <v>2</v>
       </c>
-      <c r="AF64" s="47">
+      <c r="AF64" s="45">
         <v>16</v>
       </c>
       <c r="AG64" s="29">
@@ -6998,7 +6986,7 @@
       <c r="AE65" s="29">
         <v>3</v>
       </c>
-      <c r="AF65" s="47">
+      <c r="AF65" s="45">
         <v>16</v>
       </c>
       <c r="AG65" s="29">
@@ -7093,7 +7081,7 @@
       <c r="AE66" s="29">
         <v>6</v>
       </c>
-      <c r="AF66" s="47">
+      <c r="AF66" s="45">
         <v>26</v>
       </c>
       <c r="AG66" s="29">
@@ -7188,7 +7176,7 @@
       <c r="AE67" s="29">
         <v>12</v>
       </c>
-      <c r="AF67" s="47">
+      <c r="AF67" s="45">
         <v>47</v>
       </c>
       <c r="AG67" s="29">
@@ -7283,7 +7271,7 @@
       <c r="AE68" s="29">
         <v>14</v>
       </c>
-      <c r="AF68" s="47">
+      <c r="AF68" s="45">
         <v>47</v>
       </c>
       <c r="AG68" s="29">
@@ -7378,7 +7366,7 @@
       <c r="AE69" s="29">
         <v>23</v>
       </c>
-      <c r="AF69" s="47">
+      <c r="AF69" s="45">
         <v>84</v>
       </c>
       <c r="AG69" s="29">
@@ -7473,7 +7461,7 @@
       <c r="AE70" s="29">
         <v>33</v>
       </c>
-      <c r="AF70" s="47">
+      <c r="AF70" s="45">
         <v>113</v>
       </c>
       <c r="AG70" s="29">
@@ -7568,7 +7556,7 @@
       <c r="AE71" s="29">
         <v>43</v>
       </c>
-      <c r="AF71" s="47">
+      <c r="AF71" s="45">
         <v>156</v>
       </c>
       <c r="AG71" s="29">
@@ -7663,7 +7651,7 @@
       <c r="AE72" s="29">
         <v>60</v>
       </c>
-      <c r="AF72" s="47">
+      <c r="AF72" s="45">
         <v>218</v>
       </c>
       <c r="AG72" s="29">
@@ -7758,7 +7746,7 @@
       <c r="AE73" s="29">
         <v>76</v>
       </c>
-      <c r="AF73" s="47">
+      <c r="AF73" s="45">
         <v>311</v>
       </c>
       <c r="AG73" s="29">
@@ -7853,7 +7841,7 @@
       <c r="AE74" s="29">
         <v>100</v>
       </c>
-      <c r="AF74" s="47">
+      <c r="AF74" s="45">
         <v>418</v>
       </c>
       <c r="AG74" s="29">
@@ -7948,7 +7936,7 @@
       <c r="AE75" s="29">
         <v>119</v>
       </c>
-      <c r="AF75" s="47">
+      <c r="AF75" s="45">
         <v>480</v>
       </c>
       <c r="AG75" s="29">
@@ -8043,7 +8031,7 @@
       <c r="AE76" s="29">
         <v>140</v>
       </c>
-      <c r="AF76" s="47">
+      <c r="AF76" s="45">
         <v>549</v>
       </c>
       <c r="AG76" s="29">
@@ -8138,7 +8126,7 @@
       <c r="AE77" s="29">
         <v>160</v>
       </c>
-      <c r="AF77" s="47">
+      <c r="AF77" s="45">
         <v>669</v>
       </c>
       <c r="AG77" s="29">
@@ -8233,7 +8221,7 @@
       <c r="AE78" s="29">
         <v>187</v>
       </c>
-      <c r="AF78" s="47">
+      <c r="AF78" s="45">
         <v>804</v>
       </c>
       <c r="AG78" s="29">
@@ -8328,7 +8316,7 @@
       <c r="AE79" s="29">
         <v>209</v>
       </c>
-      <c r="AF79" s="47">
+      <c r="AF79" s="45">
         <v>987</v>
       </c>
       <c r="AG79" s="29">
@@ -8423,7 +8411,7 @@
       <c r="AE80" s="29">
         <v>246</v>
       </c>
-      <c r="AF80" s="47">
+      <c r="AF80" s="45">
         <v>1096</v>
       </c>
       <c r="AG80" s="29">
@@ -8518,7 +8506,7 @@
       <c r="AE81" s="29">
         <v>266</v>
       </c>
-      <c r="AF81" s="47">
+      <c r="AF81" s="45">
         <v>1251</v>
       </c>
       <c r="AG81" s="29">
@@ -8613,7 +8601,7 @@
       <c r="AE82" s="29">
         <v>295</v>
       </c>
-      <c r="AF82" s="47">
+      <c r="AF82" s="45">
         <v>1319</v>
       </c>
       <c r="AG82" s="29">
@@ -8708,7 +8696,7 @@
       <c r="AE83" s="29">
         <v>311</v>
       </c>
-      <c r="AF83" s="47">
+      <c r="AF83" s="45">
         <v>1462</v>
       </c>
       <c r="AG83" s="29">
@@ -8803,7 +8791,7 @@
       <c r="AE84" s="29">
         <v>345</v>
       </c>
-      <c r="AF84" s="47">
+      <c r="AF84" s="45">
         <v>1468</v>
       </c>
       <c r="AG84" s="29">
@@ -8898,7 +8886,7 @@
       <c r="AE85" s="29">
         <v>380</v>
       </c>
-      <c r="AF85" s="47">
+      <c r="AF85" s="45">
         <v>1892</v>
       </c>
       <c r="AG85" s="29">
@@ -8993,7 +8981,7 @@
       <c r="AE86" s="29">
         <v>409</v>
       </c>
-      <c r="AF86" s="47">
+      <c r="AF86" s="45">
         <v>2203</v>
       </c>
       <c r="AG86" s="29">
@@ -9088,7 +9076,7 @@
       <c r="AE87" s="29">
         <v>435</v>
       </c>
-      <c r="AF87" s="47">
+      <c r="AF87" s="45">
         <v>2511</v>
       </c>
       <c r="AG87" s="29">
@@ -9183,7 +9171,7 @@
       <c r="AE88" s="29">
         <v>470</v>
       </c>
-      <c r="AF88" s="47">
+      <c r="AF88" s="45">
         <v>2777</v>
       </c>
       <c r="AG88" s="29">
@@ -9278,7 +9266,7 @@
       <c r="AE89" s="29">
         <v>504</v>
       </c>
-      <c r="AF89" s="47">
+      <c r="AF89" s="45">
         <v>3102</v>
       </c>
       <c r="AG89" s="29">
@@ -9373,7 +9361,7 @@
       <c r="AE90" s="29">
         <v>535</v>
       </c>
-      <c r="AF90" s="47">
+      <c r="AF90" s="45">
         <v>3372</v>
       </c>
       <c r="AG90" s="29">
@@ -9468,7 +9456,7 @@
       <c r="AE91" s="29">
         <v>567</v>
       </c>
-      <c r="AF91" s="47">
+      <c r="AF91" s="45">
         <v>3764</v>
       </c>
       <c r="AG91" s="29">
@@ -9563,7 +9551,7 @@
       <c r="AE92" s="29">
         <v>599</v>
       </c>
-      <c r="AF92" s="47">
+      <c r="AF92" s="45">
         <v>4162</v>
       </c>
       <c r="AG92" s="29">
@@ -9658,7 +9646,7 @@
       <c r="AE93" s="29">
         <v>629</v>
       </c>
-      <c r="AF93" s="47">
+      <c r="AF93" s="45">
         <v>4662</v>
       </c>
       <c r="AG93" s="29">
@@ -9753,7 +9741,7 @@
       <c r="AE94" s="29">
         <v>657</v>
       </c>
-      <c r="AF94" s="47">
+      <c r="AF94" s="45">
         <v>5106</v>
       </c>
       <c r="AG94" s="29">
@@ -9848,7 +9836,7 @@
       <c r="AE95" s="29">
         <v>687</v>
       </c>
-      <c r="AF95" s="47">
+      <c r="AF95" s="45">
         <v>5449</v>
       </c>
       <c r="AG95" s="29">
@@ -9943,7 +9931,7 @@
       <c r="AE96" s="29">
         <v>714</v>
       </c>
-      <c r="AF96" s="47">
+      <c r="AF96" s="45">
         <v>5710</v>
       </c>
       <c r="AG96" s="29">
@@ -10038,7 +10026,7 @@
       <c r="AE97" s="29">
         <v>735</v>
       </c>
-      <c r="AF97" s="47">
+      <c r="AF97" s="45">
         <v>6125</v>
       </c>
       <c r="AG97" s="29">
@@ -10133,7 +10121,7 @@
       <c r="AE98" s="29">
         <v>762</v>
       </c>
-      <c r="AF98" s="47">
+      <c r="AF98" s="45">
         <v>6592</v>
       </c>
       <c r="AG98" s="29">
@@ -10228,7 +10216,7 @@
       <c r="AE99" s="29">
         <v>785</v>
       </c>
-      <c r="AF99" s="47">
+      <c r="AF99" s="45">
         <v>7170</v>
       </c>
       <c r="AG99" s="29">
@@ -10323,7 +10311,7 @@
       <c r="AE100" s="29">
         <v>820</v>
       </c>
-      <c r="AF100" s="47">
+      <c r="AF100" s="45">
         <v>7647</v>
       </c>
       <c r="AG100" s="29">
@@ -10418,7 +10406,7 @@
       <c r="AE101" s="29">
         <v>854</v>
       </c>
-      <c r="AF101" s="47">
+      <c r="AF101" s="45">
         <v>8125</v>
       </c>
       <c r="AG101" s="29">
@@ -10513,7 +10501,7 @@
       <c r="AE102" s="29">
         <v>880</v>
       </c>
-      <c r="AF102" s="47">
+      <c r="AF102" s="45">
         <v>8617</v>
       </c>
       <c r="AG102" s="29">
@@ -10608,7 +10596,7 @@
       <c r="AE103" s="29">
         <v>903</v>
       </c>
-      <c r="AF103" s="47">
+      <c r="AF103" s="45">
         <v>9009</v>
       </c>
       <c r="AG103" s="29">
@@ -10703,7 +10691,7 @@
       <c r="AE104" s="29">
         <v>928</v>
       </c>
-      <c r="AF104" s="47">
+      <c r="AF104" s="45">
         <v>9410</v>
       </c>
       <c r="AG104" s="29">
@@ -10798,7 +10786,7 @@
       <c r="AE105" s="29">
         <v>948</v>
       </c>
-      <c r="AF105" s="47">
+      <c r="AF105" s="45">
         <v>9866</v>
       </c>
       <c r="AG105" s="29">
@@ -10893,7 +10881,7 @@
       <c r="AE106" s="29">
         <v>973</v>
       </c>
-      <c r="AF106" s="47">
+      <c r="AF106" s="45">
         <v>10406</v>
       </c>
       <c r="AG106" s="29">
@@ -10988,7 +10976,7 @@
       <c r="AE107" s="29">
         <v>989</v>
       </c>
-      <c r="AF107" s="47">
+      <c r="AF107" s="45">
         <v>10861</v>
       </c>
       <c r="AG107" s="29">
@@ -11083,7 +11071,7 @@
       <c r="AE108" s="29">
         <v>1007</v>
       </c>
-      <c r="AF108" s="47">
+      <c r="AF108" s="45">
         <v>11411</v>
       </c>
       <c r="AG108" s="29">
@@ -11178,7 +11166,7 @@
       <c r="AE109" s="29">
         <v>1023</v>
       </c>
-      <c r="AF109" s="47">
+      <c r="AF109" s="45">
         <v>11913</v>
       </c>
       <c r="AG109" s="29">
@@ -11273,7 +11261,7 @@
       <c r="AE110" s="29">
         <v>1043</v>
       </c>
-      <c r="AF110" s="47">
+      <c r="AF110" s="45">
         <v>12331</v>
       </c>
       <c r="AG110" s="29">
@@ -11368,7 +11356,7 @@
       <c r="AE111" s="29">
         <v>1063</v>
       </c>
-      <c r="AF111" s="47">
+      <c r="AF111" s="45">
         <v>12697</v>
       </c>
       <c r="AG111" s="29">
@@ -11463,7 +11451,7 @@
       <c r="AE112" s="29">
         <v>1074</v>
       </c>
-      <c r="AF112" s="47">
+      <c r="AF112" s="45">
         <v>13184</v>
       </c>
       <c r="AG112" s="29">
@@ -11558,7 +11546,7 @@
       <c r="AE113" s="29">
         <v>1089</v>
       </c>
-      <c r="AF113" s="47">
+      <c r="AF113" s="45">
         <v>13691</v>
       </c>
       <c r="AG113" s="29">
@@ -11653,7 +11641,7 @@
       <c r="AE114" s="29">
         <v>1105</v>
       </c>
-      <c r="AF114" s="47">
+      <c r="AF114" s="45">
         <v>14195</v>
       </c>
       <c r="AG114" s="29">
@@ -11748,7 +11736,7 @@
       <c r="AE115" s="29">
         <v>1114</v>
       </c>
-      <c r="AF115" s="47">
+      <c r="AF115" s="45">
         <v>14710</v>
       </c>
       <c r="AG115" s="29">
@@ -11843,7 +11831,7 @@
       <c r="AE116" s="29">
         <v>1126</v>
       </c>
-      <c r="AF116" s="47">
+      <c r="AF116" s="45">
         <v>15232</v>
       </c>
       <c r="AG116" s="29">
@@ -11938,7 +11926,7 @@
       <c r="AE117" s="29">
         <v>1135</v>
       </c>
-      <c r="AF117" s="47">
+      <c r="AF117" s="45">
         <v>15648</v>
       </c>
       <c r="AG117" s="29">
@@ -12033,7 +12021,7 @@
       <c r="AE118" s="29">
         <v>1144</v>
       </c>
-      <c r="AF118" s="47">
+      <c r="AF118" s="45">
         <v>16023</v>
       </c>
       <c r="AG118" s="29">
@@ -12128,7 +12116,7 @@
       <c r="AE119" s="29">
         <v>1163</v>
       </c>
-      <c r="AF119" s="47">
+      <c r="AF119" s="45">
         <v>16425</v>
       </c>
       <c r="AG119" s="29">
@@ -12223,7 +12211,7 @@
       <c r="AE120" s="29">
         <v>1175</v>
       </c>
-      <c r="AF120" s="47">
+      <c r="AF120" s="45">
         <v>16847</v>
       </c>
       <c r="AG120" s="29">
@@ -12318,7 +12306,7 @@
       <c r="AE121" s="29">
         <v>1184</v>
       </c>
-      <c r="AF121" s="47">
+      <c r="AF121" s="45">
         <v>17330</v>
       </c>
       <c r="AG121" s="29">
@@ -12413,7 +12401,7 @@
       <c r="AE122" s="29">
         <v>1190</v>
       </c>
-      <c r="AF122" s="47">
+      <c r="AF122" s="45">
         <v>17858</v>
       </c>
       <c r="AG122" s="29">
@@ -12508,7 +12496,7 @@
       <c r="AE123" s="29">
         <v>1203</v>
       </c>
-      <c r="AF123" s="47">
+      <c r="AF123" s="45">
         <v>18291</v>
       </c>
       <c r="AG123" s="29">
@@ -12603,7 +12591,7 @@
       <c r="AE124" s="29">
         <v>1218</v>
       </c>
-      <c r="AF124" s="47">
+      <c r="AF124" s="45">
         <v>18616</v>
       </c>
       <c r="AG124" s="29">
@@ -12698,7 +12686,7 @@
       <c r="AE125" s="29">
         <v>1231</v>
       </c>
-      <c r="AF125" s="47">
+      <c r="AF125" s="45">
         <v>18876</v>
       </c>
       <c r="AG125" s="29">
@@ -12793,7 +12781,7 @@
       <c r="AE126" s="29">
         <v>1247</v>
       </c>
-      <c r="AF126" s="47">
+      <c r="AF126" s="45">
         <v>19230</v>
       </c>
       <c r="AG126" s="29">
@@ -12888,7 +12876,7 @@
       <c r="AE127" s="29">
         <v>1263</v>
       </c>
-      <c r="AF127" s="47">
+      <c r="AF127" s="45">
         <v>19706</v>
       </c>
       <c r="AG127" s="29">
@@ -12983,694 +12971,2434 @@
       <c r="AE128" s="29">
         <v>1277</v>
       </c>
-      <c r="AF128" s="47">
+      <c r="AF128" s="45">
         <v>20148</v>
       </c>
       <c r="AG128" s="29">
         <v>588</v>
       </c>
     </row>
-    <row r="129" spans="4:33" s="19" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D129" s="30"/>
-      <c r="E129" s="27"/>
-      <c r="F129" s="26"/>
-      <c r="G129" s="37"/>
-      <c r="H129" s="26"/>
-      <c r="I129" s="27"/>
-      <c r="J129" s="20"/>
-      <c r="K129" s="29"/>
-      <c r="L129" s="28"/>
-      <c r="M129" s="29"/>
-      <c r="N129" s="28"/>
-      <c r="O129" s="29"/>
-      <c r="P129" s="28"/>
-      <c r="Q129" s="29"/>
-      <c r="R129" s="28"/>
-      <c r="S129" s="29"/>
-      <c r="T129" s="28"/>
-      <c r="U129" s="29"/>
-      <c r="V129" s="28"/>
-      <c r="W129" s="29"/>
-      <c r="X129" s="28"/>
-      <c r="Y129" s="29"/>
-      <c r="Z129" s="28"/>
-      <c r="AA129" s="29"/>
-      <c r="AB129" s="28"/>
-      <c r="AC129" s="29"/>
-      <c r="AD129" s="28"/>
-      <c r="AE129" s="29"/>
-      <c r="AF129" s="47"/>
-      <c r="AG129" s="29"/>
-    </row>
-    <row r="130" spans="4:33" s="19" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D130" s="30"/>
-      <c r="E130" s="27"/>
-      <c r="F130" s="26"/>
-      <c r="G130" s="37"/>
-      <c r="H130" s="26"/>
-      <c r="I130" s="27"/>
-      <c r="J130" s="20"/>
-      <c r="K130" s="29"/>
-      <c r="L130" s="28"/>
-      <c r="M130" s="29"/>
-      <c r="N130" s="28"/>
-      <c r="O130" s="29"/>
-      <c r="P130" s="28"/>
-      <c r="Q130" s="29"/>
-      <c r="R130" s="28"/>
-      <c r="S130" s="29"/>
-      <c r="T130" s="28"/>
-      <c r="U130" s="29"/>
-      <c r="V130" s="28"/>
-      <c r="W130" s="29"/>
-      <c r="X130" s="28"/>
-      <c r="Y130" s="29"/>
-      <c r="Z130" s="28"/>
-      <c r="AA130" s="29"/>
-      <c r="AB130" s="28"/>
-      <c r="AC130" s="29"/>
-      <c r="AD130" s="28"/>
-      <c r="AE130" s="29"/>
-      <c r="AF130" s="47"/>
-      <c r="AG130" s="29"/>
-    </row>
-    <row r="131" spans="4:33" s="19" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D131" s="30"/>
-      <c r="E131" s="27"/>
-      <c r="F131" s="26"/>
-      <c r="G131" s="37"/>
-      <c r="H131" s="26"/>
-      <c r="I131" s="27"/>
-      <c r="J131" s="20"/>
-      <c r="K131" s="29"/>
-      <c r="L131" s="28"/>
-      <c r="M131" s="29"/>
-      <c r="N131" s="28"/>
-      <c r="O131" s="29"/>
-      <c r="P131" s="28"/>
-      <c r="Q131" s="29"/>
-      <c r="R131" s="28"/>
-      <c r="S131" s="29"/>
-      <c r="T131" s="28"/>
-      <c r="U131" s="29"/>
-      <c r="V131" s="28"/>
-      <c r="W131" s="29"/>
-      <c r="X131" s="28"/>
-      <c r="Y131" s="29"/>
-      <c r="Z131" s="28"/>
-      <c r="AA131" s="29"/>
-      <c r="AB131" s="28"/>
-      <c r="AC131" s="29"/>
-      <c r="AD131" s="28"/>
-      <c r="AE131" s="29"/>
-      <c r="AF131" s="47"/>
-      <c r="AG131" s="29"/>
-    </row>
-    <row r="132" spans="4:33" s="19" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D132" s="30"/>
-      <c r="E132" s="27"/>
-      <c r="F132" s="26"/>
-      <c r="G132" s="37"/>
-      <c r="H132" s="26"/>
-      <c r="I132" s="27"/>
-      <c r="J132" s="20"/>
-      <c r="K132" s="29"/>
-      <c r="L132" s="28"/>
-      <c r="M132" s="29"/>
-      <c r="N132" s="28"/>
-      <c r="O132" s="29"/>
-      <c r="P132" s="28"/>
-      <c r="Q132" s="29"/>
-      <c r="R132" s="28"/>
-      <c r="S132" s="29"/>
-      <c r="T132" s="28"/>
-      <c r="U132" s="29"/>
-      <c r="V132" s="28"/>
-      <c r="W132" s="29"/>
-      <c r="X132" s="28"/>
-      <c r="Y132" s="29"/>
-      <c r="Z132" s="28"/>
-      <c r="AA132" s="29"/>
-      <c r="AB132" s="28"/>
-      <c r="AC132" s="29"/>
-      <c r="AD132" s="28"/>
-      <c r="AE132" s="29"/>
-      <c r="AF132" s="47"/>
-      <c r="AG132" s="29"/>
-    </row>
-    <row r="133" spans="4:33" s="19" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D133" s="30"/>
-      <c r="E133" s="27"/>
-      <c r="F133" s="26"/>
-      <c r="G133" s="37"/>
-      <c r="H133" s="26"/>
-      <c r="I133" s="27"/>
-      <c r="J133" s="20"/>
-      <c r="K133" s="29"/>
-      <c r="L133" s="28"/>
-      <c r="M133" s="29"/>
-      <c r="N133" s="28"/>
-      <c r="O133" s="29"/>
-      <c r="P133" s="28"/>
-      <c r="Q133" s="29"/>
-      <c r="R133" s="28"/>
-      <c r="S133" s="29"/>
-      <c r="T133" s="28"/>
-      <c r="U133" s="29"/>
-      <c r="V133" s="28"/>
-      <c r="W133" s="29"/>
-      <c r="X133" s="28"/>
-      <c r="Y133" s="29"/>
-      <c r="Z133" s="28"/>
-      <c r="AA133" s="29"/>
-      <c r="AB133" s="28"/>
-      <c r="AC133" s="29"/>
-      <c r="AD133" s="28"/>
-      <c r="AE133" s="29"/>
-      <c r="AF133" s="47"/>
-      <c r="AG133" s="29"/>
-    </row>
-    <row r="134" spans="4:33" s="19" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D134" s="30"/>
-      <c r="E134" s="27"/>
-      <c r="F134" s="26"/>
-      <c r="G134" s="37"/>
-      <c r="H134" s="26"/>
-      <c r="I134" s="27"/>
-      <c r="J134" s="20"/>
-      <c r="K134" s="29"/>
-      <c r="L134" s="28"/>
-      <c r="M134" s="29"/>
-      <c r="N134" s="28"/>
-      <c r="O134" s="29"/>
-      <c r="P134" s="28"/>
-      <c r="Q134" s="29"/>
-      <c r="R134" s="28"/>
-      <c r="S134" s="29"/>
-      <c r="T134" s="28"/>
-      <c r="U134" s="29"/>
-      <c r="V134" s="28"/>
-      <c r="W134" s="29"/>
-      <c r="X134" s="28"/>
-      <c r="Y134" s="29"/>
-      <c r="Z134" s="28"/>
-      <c r="AA134" s="29"/>
-      <c r="AB134" s="28"/>
-      <c r="AC134" s="29"/>
-      <c r="AD134" s="28"/>
-      <c r="AE134" s="29"/>
-      <c r="AF134" s="47"/>
-      <c r="AG134" s="29"/>
-    </row>
-    <row r="135" spans="4:33" s="19" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D135" s="30"/>
-      <c r="E135" s="27"/>
-      <c r="F135" s="26"/>
-      <c r="G135" s="37"/>
-      <c r="H135" s="26"/>
-      <c r="I135" s="27"/>
-      <c r="J135" s="20"/>
-      <c r="K135" s="29"/>
-      <c r="L135" s="28"/>
-      <c r="M135" s="29"/>
-      <c r="N135" s="28"/>
-      <c r="O135" s="29"/>
-      <c r="P135" s="28"/>
-      <c r="Q135" s="29"/>
-      <c r="R135" s="28"/>
-      <c r="S135" s="29"/>
-      <c r="T135" s="28"/>
-      <c r="U135" s="29"/>
-      <c r="V135" s="28"/>
-      <c r="W135" s="29"/>
-      <c r="X135" s="28"/>
-      <c r="Y135" s="29"/>
-      <c r="Z135" s="28"/>
-      <c r="AA135" s="29"/>
-      <c r="AB135" s="28"/>
-      <c r="AC135" s="29"/>
-      <c r="AD135" s="28"/>
-      <c r="AE135" s="29"/>
-      <c r="AF135" s="47"/>
-      <c r="AG135" s="29"/>
-    </row>
-    <row r="136" spans="4:33" s="19" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D136" s="30"/>
-      <c r="E136" s="27"/>
-      <c r="F136" s="26"/>
-      <c r="G136" s="37"/>
-      <c r="H136" s="26"/>
-      <c r="I136" s="27"/>
-      <c r="J136" s="20"/>
-      <c r="K136" s="29"/>
-      <c r="L136" s="28"/>
-      <c r="M136" s="29"/>
-      <c r="N136" s="28"/>
-      <c r="O136" s="29"/>
-      <c r="P136" s="28"/>
-      <c r="Q136" s="29"/>
-      <c r="R136" s="28"/>
-      <c r="S136" s="29"/>
-      <c r="T136" s="28"/>
-      <c r="U136" s="29"/>
-      <c r="V136" s="28"/>
-      <c r="W136" s="29"/>
-      <c r="X136" s="28"/>
-      <c r="Y136" s="29"/>
-      <c r="Z136" s="28"/>
-      <c r="AA136" s="29"/>
-      <c r="AB136" s="28"/>
-      <c r="AC136" s="29"/>
-      <c r="AD136" s="28"/>
-      <c r="AE136" s="29"/>
-      <c r="AF136" s="47"/>
-      <c r="AG136" s="29"/>
-    </row>
-    <row r="137" spans="4:33" s="19" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D137" s="30"/>
-      <c r="E137" s="27"/>
-      <c r="F137" s="26"/>
-      <c r="G137" s="37"/>
-      <c r="H137" s="26"/>
-      <c r="I137" s="27"/>
-      <c r="J137" s="20"/>
-      <c r="K137" s="29"/>
-      <c r="L137" s="28"/>
-      <c r="M137" s="29"/>
-      <c r="N137" s="28"/>
-      <c r="O137" s="29"/>
-      <c r="P137" s="28"/>
-      <c r="Q137" s="29"/>
-      <c r="R137" s="28"/>
-      <c r="S137" s="29"/>
-      <c r="T137" s="28"/>
-      <c r="U137" s="29"/>
-      <c r="V137" s="28"/>
-      <c r="W137" s="29"/>
-      <c r="X137" s="28"/>
-      <c r="Y137" s="29"/>
-      <c r="Z137" s="28"/>
-      <c r="AA137" s="29"/>
-      <c r="AB137" s="28"/>
-      <c r="AC137" s="29"/>
-      <c r="AD137" s="28"/>
-      <c r="AE137" s="29"/>
-      <c r="AF137" s="47"/>
-      <c r="AG137" s="29"/>
-    </row>
-    <row r="138" spans="4:33" s="19" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D138" s="30"/>
-      <c r="E138" s="27"/>
-      <c r="F138" s="26"/>
-      <c r="G138" s="37"/>
-      <c r="H138" s="26"/>
-      <c r="I138" s="27"/>
-      <c r="J138" s="20"/>
-      <c r="K138" s="29"/>
-      <c r="L138" s="28"/>
-      <c r="M138" s="29"/>
-      <c r="N138" s="28"/>
-      <c r="O138" s="29"/>
-      <c r="P138" s="28"/>
-      <c r="Q138" s="29"/>
-      <c r="R138" s="28"/>
-      <c r="S138" s="29"/>
-      <c r="T138" s="28"/>
-      <c r="U138" s="29"/>
-      <c r="V138" s="28"/>
-      <c r="W138" s="29"/>
-      <c r="X138" s="28"/>
-      <c r="Y138" s="29"/>
-      <c r="Z138" s="28"/>
-      <c r="AA138" s="29"/>
-      <c r="AB138" s="28"/>
-      <c r="AC138" s="29"/>
-      <c r="AD138" s="28"/>
-      <c r="AE138" s="29"/>
-      <c r="AF138" s="47"/>
-      <c r="AG138" s="29"/>
-    </row>
-    <row r="139" spans="4:33" s="19" customFormat="1" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D139" s="31"/>
-      <c r="E139" s="32"/>
-      <c r="F139" s="33"/>
-      <c r="G139" s="38"/>
-      <c r="H139" s="33"/>
-      <c r="I139" s="32"/>
-      <c r="J139" s="40"/>
-      <c r="K139" s="35"/>
-      <c r="L139" s="34"/>
-      <c r="M139" s="35"/>
-      <c r="N139" s="34"/>
-      <c r="O139" s="35"/>
-      <c r="P139" s="34"/>
-      <c r="Q139" s="35"/>
-      <c r="R139" s="34"/>
-      <c r="S139" s="35"/>
-      <c r="T139" s="34"/>
-      <c r="U139" s="35"/>
-      <c r="V139" s="34"/>
-      <c r="W139" s="35"/>
-      <c r="X139" s="34"/>
-      <c r="Y139" s="35"/>
-      <c r="Z139" s="34"/>
-      <c r="AA139" s="35"/>
-      <c r="AB139" s="34"/>
-      <c r="AC139" s="35"/>
-      <c r="AD139" s="34"/>
-      <c r="AE139" s="35"/>
-      <c r="AF139" s="48"/>
-      <c r="AG139" s="35"/>
-    </row>
-    <row r="140" spans="4:33" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="D140" s="6"/>
-      <c r="E140" s="7"/>
-      <c r="F140" s="7"/>
-      <c r="G140" s="7"/>
-      <c r="H140" s="7"/>
-      <c r="I140" s="7"/>
-    </row>
-    <row r="141" spans="4:33" x14ac:dyDescent="0.3">
-      <c r="D141" s="6"/>
-      <c r="E141" s="7"/>
-      <c r="F141" s="7"/>
-      <c r="G141" s="7"/>
-      <c r="H141" s="7"/>
-      <c r="I141" s="7"/>
-    </row>
-    <row r="142" spans="4:33" x14ac:dyDescent="0.3">
-      <c r="D142" s="6"/>
-      <c r="E142" s="7"/>
-      <c r="F142" s="7"/>
-      <c r="G142" s="7"/>
-      <c r="H142" s="7"/>
-      <c r="I142" s="7"/>
-    </row>
-    <row r="143" spans="4:33" x14ac:dyDescent="0.3">
-      <c r="D143" s="6"/>
-      <c r="E143" s="7"/>
-      <c r="F143" s="7"/>
-      <c r="G143" s="7"/>
-      <c r="H143" s="7"/>
-      <c r="I143" s="7"/>
-    </row>
-    <row r="144" spans="4:33" x14ac:dyDescent="0.3">
-      <c r="D144" s="6"/>
-      <c r="E144" s="7"/>
-      <c r="F144" s="7"/>
-      <c r="G144" s="7"/>
-      <c r="H144" s="7"/>
-      <c r="I144" s="7"/>
-    </row>
-    <row r="145" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D145" s="6"/>
-      <c r="E145" s="7"/>
-      <c r="F145" s="7"/>
-      <c r="G145" s="7"/>
-      <c r="H145" s="7"/>
-      <c r="I145" s="7"/>
-    </row>
-    <row r="146" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D146" s="6"/>
-      <c r="E146" s="7"/>
-      <c r="F146" s="7"/>
-      <c r="G146" s="7"/>
-      <c r="H146" s="7"/>
-      <c r="I146" s="7"/>
-    </row>
-    <row r="147" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D147" s="6"/>
-      <c r="E147" s="7"/>
-      <c r="F147" s="7"/>
-      <c r="G147" s="7"/>
-      <c r="H147" s="7"/>
-      <c r="I147" s="7"/>
-    </row>
-    <row r="148" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D148" s="6"/>
-      <c r="E148" s="7"/>
-      <c r="F148" s="7"/>
-      <c r="G148" s="7"/>
-      <c r="H148" s="7"/>
-      <c r="I148" s="7"/>
-    </row>
-    <row r="149" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D149" s="6"/>
-      <c r="E149" s="7"/>
-      <c r="F149" s="7"/>
-      <c r="G149" s="7"/>
-      <c r="H149" s="7"/>
-      <c r="I149" s="7"/>
-    </row>
-    <row r="150" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D150" s="6"/>
-      <c r="E150" s="7"/>
-      <c r="F150" s="7"/>
-      <c r="G150" s="7"/>
-      <c r="H150" s="7"/>
-      <c r="I150" s="7"/>
-    </row>
-    <row r="151" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D151" s="6"/>
-      <c r="E151" s="7"/>
-      <c r="F151" s="7"/>
-      <c r="G151" s="7"/>
-      <c r="H151" s="7"/>
-      <c r="I151" s="7"/>
-    </row>
-    <row r="152" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D152" s="6"/>
-      <c r="E152" s="7"/>
-      <c r="F152" s="7"/>
-      <c r="G152" s="7"/>
-      <c r="H152" s="7"/>
-      <c r="I152" s="7"/>
-    </row>
-    <row r="153" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D153" s="6"/>
-      <c r="E153" s="7"/>
-      <c r="F153" s="7"/>
-      <c r="G153" s="7"/>
-      <c r="H153" s="7"/>
-      <c r="I153" s="7"/>
-    </row>
-    <row r="154" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D154" s="6"/>
-      <c r="E154" s="7"/>
-      <c r="F154" s="7"/>
-      <c r="G154" s="7"/>
-      <c r="H154" s="7"/>
-      <c r="I154" s="7"/>
-    </row>
-    <row r="155" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D155" s="6"/>
-      <c r="E155" s="7"/>
-      <c r="F155" s="7"/>
-      <c r="G155" s="7"/>
-      <c r="H155" s="7"/>
-      <c r="I155" s="7"/>
-    </row>
-    <row r="156" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D156" s="6"/>
-      <c r="E156" s="7"/>
-      <c r="F156" s="7"/>
-      <c r="G156" s="7"/>
-      <c r="H156" s="7"/>
-      <c r="I156" s="7"/>
-    </row>
-    <row r="157" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D157" s="6"/>
-      <c r="E157" s="7"/>
-      <c r="F157" s="7"/>
-      <c r="G157" s="7"/>
-      <c r="H157" s="7"/>
-      <c r="I157" s="7"/>
-    </row>
-    <row r="158" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D158" s="6"/>
-      <c r="E158" s="7"/>
-      <c r="F158" s="7"/>
-      <c r="G158" s="7"/>
-      <c r="H158" s="7"/>
-      <c r="I158" s="7"/>
-    </row>
-    <row r="159" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D159" s="6"/>
-      <c r="E159" s="7"/>
-      <c r="F159" s="7"/>
-      <c r="G159" s="7"/>
-      <c r="H159" s="7"/>
-      <c r="I159" s="7"/>
-    </row>
-    <row r="160" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D160" s="6"/>
-      <c r="E160" s="7"/>
-      <c r="F160" s="7"/>
-      <c r="G160" s="7"/>
-      <c r="H160" s="7"/>
-      <c r="I160" s="7"/>
-    </row>
-    <row r="161" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D161" s="6"/>
-      <c r="E161" s="7"/>
-      <c r="F161" s="7"/>
-      <c r="G161" s="7"/>
-      <c r="H161" s="7"/>
-      <c r="I161" s="7"/>
-    </row>
-    <row r="162" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D162" s="6"/>
-      <c r="E162" s="7"/>
-      <c r="F162" s="7"/>
-      <c r="G162" s="7"/>
-      <c r="H162" s="7"/>
-      <c r="I162" s="7"/>
-    </row>
-    <row r="163" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D163" s="6"/>
-      <c r="E163" s="7"/>
-      <c r="F163" s="7"/>
-      <c r="G163" s="7"/>
-      <c r="H163" s="7"/>
-      <c r="I163" s="7"/>
-    </row>
-    <row r="164" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D164" s="6"/>
-      <c r="E164" s="7"/>
-      <c r="F164" s="7"/>
-      <c r="G164" s="7"/>
-      <c r="H164" s="7"/>
-      <c r="I164" s="7"/>
-    </row>
-    <row r="165" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D165" s="6"/>
-      <c r="E165" s="7"/>
-      <c r="F165" s="7"/>
-      <c r="G165" s="7"/>
-      <c r="H165" s="7"/>
-      <c r="I165" s="7"/>
-    </row>
-    <row r="166" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D166" s="6"/>
-      <c r="E166" s="7"/>
-      <c r="F166" s="7"/>
-      <c r="G166" s="7"/>
-      <c r="H166" s="7"/>
-      <c r="I166" s="7"/>
-    </row>
-    <row r="167" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D167" s="6"/>
-      <c r="E167" s="7"/>
-      <c r="F167" s="7"/>
-      <c r="G167" s="7"/>
-      <c r="H167" s="7"/>
-      <c r="I167" s="7"/>
-    </row>
-    <row r="168" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D168" s="6"/>
-      <c r="E168" s="7"/>
-      <c r="F168" s="7"/>
-      <c r="G168" s="7"/>
-      <c r="H168" s="7"/>
-      <c r="I168" s="7"/>
-    </row>
-    <row r="169" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D169" s="6"/>
-      <c r="E169" s="7"/>
-      <c r="F169" s="7"/>
-      <c r="G169" s="7"/>
-      <c r="H169" s="7"/>
-      <c r="I169" s="7"/>
-    </row>
-    <row r="170" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D170" s="6"/>
-      <c r="E170" s="7"/>
-      <c r="F170" s="7"/>
-      <c r="G170" s="7"/>
-      <c r="H170" s="7"/>
-      <c r="I170" s="7"/>
-    </row>
-    <row r="171" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D171" s="6"/>
-      <c r="E171" s="7"/>
-      <c r="F171" s="7"/>
-      <c r="G171" s="7"/>
-      <c r="H171" s="7"/>
-      <c r="I171" s="7"/>
-    </row>
-    <row r="172" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D172" s="6"/>
-      <c r="E172" s="7"/>
-      <c r="F172" s="7"/>
-      <c r="G172" s="7"/>
-      <c r="H172" s="7"/>
-      <c r="I172" s="7"/>
-    </row>
-    <row r="173" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D173" s="6"/>
-      <c r="E173" s="7"/>
-      <c r="F173" s="7"/>
-      <c r="G173" s="7"/>
-      <c r="H173" s="7"/>
-      <c r="I173" s="7"/>
-    </row>
-    <row r="174" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D174" s="6"/>
-      <c r="E174" s="7"/>
-      <c r="F174" s="7"/>
-      <c r="G174" s="7"/>
-      <c r="H174" s="7"/>
-      <c r="I174" s="7"/>
-    </row>
-    <row r="175" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D175" s="6"/>
-      <c r="E175" s="7"/>
-      <c r="F175" s="7"/>
-      <c r="G175" s="7"/>
-      <c r="H175" s="7"/>
-      <c r="I175" s="7"/>
-    </row>
-    <row r="176" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D176" s="6"/>
-      <c r="E176" s="7"/>
-      <c r="F176" s="7"/>
-      <c r="G176" s="7"/>
-      <c r="H176" s="7"/>
-      <c r="I176" s="7"/>
-    </row>
-    <row r="177" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D177" s="6"/>
-      <c r="E177" s="7"/>
-      <c r="F177" s="7"/>
-      <c r="G177" s="7"/>
-      <c r="H177" s="7"/>
-      <c r="I177" s="7"/>
-    </row>
-    <row r="178" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D178" s="6"/>
-      <c r="E178" s="7"/>
-      <c r="F178" s="7"/>
-      <c r="G178" s="7"/>
-      <c r="H178" s="7"/>
-      <c r="I178" s="7"/>
-    </row>
-    <row r="179" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D179" s="6"/>
-      <c r="E179" s="7"/>
-      <c r="F179" s="7"/>
-      <c r="G179" s="7"/>
-      <c r="H179" s="7"/>
-      <c r="I179" s="7"/>
-    </row>
-    <row r="180" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D180" s="6"/>
-      <c r="E180" s="7"/>
-      <c r="F180" s="7"/>
-      <c r="G180" s="7"/>
-      <c r="H180" s="7"/>
-      <c r="I180" s="7"/>
-    </row>
-    <row r="181" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="129" spans="3:33" s="19" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C129" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="D129" s="30">
+        <v>1547973</v>
+      </c>
+      <c r="E129" s="27">
+        <v>92923</v>
+      </c>
+      <c r="F129" s="26">
+        <v>81765</v>
+      </c>
+      <c r="G129" s="37">
+        <v>6180</v>
+      </c>
+      <c r="H129" s="26">
+        <v>59567</v>
+      </c>
+      <c r="I129" s="27">
+        <v>6510</v>
+      </c>
+      <c r="J129" s="20">
+        <v>141949</v>
+      </c>
+      <c r="K129" s="29">
+        <v>28238</v>
+      </c>
+      <c r="L129" s="28">
+        <v>177850</v>
+      </c>
+      <c r="M129" s="29">
+        <v>8216</v>
+      </c>
+      <c r="N129" s="28">
+        <v>228658</v>
+      </c>
+      <c r="O129" s="29">
+        <v>32616</v>
+      </c>
+      <c r="P129" s="28">
+        <v>335882</v>
+      </c>
+      <c r="Q129" s="29">
+        <v>3388</v>
+      </c>
+      <c r="R129" s="28">
+        <v>234824</v>
+      </c>
+      <c r="S129" s="29">
+        <v>28628</v>
+      </c>
+      <c r="T129" s="28">
+        <v>254199</v>
+      </c>
+      <c r="U129" s="29">
+        <v>36393</v>
+      </c>
+      <c r="V129" s="28">
+        <v>56511</v>
+      </c>
+      <c r="W129" s="29">
+        <v>9212</v>
+      </c>
+      <c r="X129" s="28">
+        <v>44888</v>
+      </c>
+      <c r="Y129" s="29">
+        <v>5788</v>
+      </c>
+      <c r="Z129" s="28">
+        <v>24506</v>
+      </c>
+      <c r="AA129" s="29">
+        <v>1592</v>
+      </c>
+      <c r="AB129" s="28">
+        <v>1803</v>
+      </c>
+      <c r="AC129" s="29">
+        <v>10</v>
+      </c>
+      <c r="AD129" s="28">
+        <v>30200</v>
+      </c>
+      <c r="AE129" s="29">
+        <v>1289</v>
+      </c>
+      <c r="AF129" s="45">
+        <v>20580</v>
+      </c>
+      <c r="AG129" s="29">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="130" spans="3:33" s="19" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C130" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="D130" s="30">
+        <v>1568448</v>
+      </c>
+      <c r="E130" s="27">
+        <v>94011</v>
+      </c>
+      <c r="F130" s="26">
+        <v>82892</v>
+      </c>
+      <c r="G130" s="37">
+        <v>6277</v>
+      </c>
+      <c r="H130" s="26">
+        <v>62527</v>
+      </c>
+      <c r="I130" s="27">
+        <v>6989</v>
+      </c>
+      <c r="J130" s="20">
+        <v>142173</v>
+      </c>
+      <c r="K130" s="29">
+        <v>28281</v>
+      </c>
+      <c r="L130" s="28">
+        <v>178281</v>
+      </c>
+      <c r="M130" s="29">
+        <v>8247</v>
+      </c>
+      <c r="N130" s="28">
+        <v>229327</v>
+      </c>
+      <c r="O130" s="29">
+        <v>32735</v>
+      </c>
+      <c r="P130" s="28">
+        <v>344481</v>
+      </c>
+      <c r="Q130" s="29">
+        <v>3541</v>
+      </c>
+      <c r="R130" s="28">
+        <v>235290</v>
+      </c>
+      <c r="S130" s="29">
+        <v>28678</v>
+      </c>
+      <c r="T130" s="28">
+        <v>257158</v>
+      </c>
+      <c r="U130" s="29">
+        <v>36675</v>
+      </c>
+      <c r="V130" s="28">
+        <v>56810</v>
+      </c>
+      <c r="W130" s="29">
+        <v>9237</v>
+      </c>
+      <c r="X130" s="28">
+        <v>45064</v>
+      </c>
+      <c r="Y130" s="29">
+        <v>5811</v>
+      </c>
+      <c r="Z130" s="28">
+        <v>24582</v>
+      </c>
+      <c r="AA130" s="29">
+        <v>1604</v>
+      </c>
+      <c r="AB130" s="28">
+        <v>1804</v>
+      </c>
+      <c r="AC130" s="29">
+        <v>10</v>
+      </c>
+      <c r="AD130" s="28">
+        <v>30471</v>
+      </c>
+      <c r="AE130" s="29">
+        <v>1302</v>
+      </c>
+      <c r="AF130" s="45">
+        <v>20986</v>
+      </c>
+      <c r="AG130" s="29">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="131" spans="3:33" s="19" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C131" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="D131" s="30">
+        <v>1618757</v>
+      </c>
+      <c r="E131" s="27">
+        <v>96909</v>
+      </c>
+      <c r="F131" s="26">
+        <v>85103</v>
+      </c>
+      <c r="G131" s="37">
+        <v>6453</v>
+      </c>
+      <c r="H131" s="26">
+        <v>68620</v>
+      </c>
+      <c r="I131" s="27">
+        <v>7394</v>
+      </c>
+      <c r="J131" s="20">
+        <v>142482</v>
+      </c>
+      <c r="K131" s="29">
+        <v>28379</v>
+      </c>
+      <c r="L131" s="28">
+        <v>179002</v>
+      </c>
+      <c r="M131" s="29">
+        <v>8302</v>
+      </c>
+      <c r="N131" s="28">
+        <v>230158</v>
+      </c>
+      <c r="O131" s="29">
+        <v>32877</v>
+      </c>
+      <c r="P131" s="28">
+        <v>362342</v>
+      </c>
+      <c r="Q131" s="29">
+        <v>3807</v>
+      </c>
+      <c r="R131" s="28">
+        <v>235158</v>
+      </c>
+      <c r="S131" s="29">
+        <v>26834</v>
+      </c>
+      <c r="T131" s="28">
+        <v>261188</v>
+      </c>
+      <c r="U131" s="29">
+        <v>36914</v>
+      </c>
+      <c r="V131" s="28">
+        <v>57342</v>
+      </c>
+      <c r="W131" s="29">
+        <v>9312</v>
+      </c>
+      <c r="X131" s="28">
+        <v>45445</v>
+      </c>
+      <c r="Y131" s="29">
+        <v>5830</v>
+      </c>
+      <c r="Z131" s="28">
+        <v>24698</v>
+      </c>
+      <c r="AA131" s="29">
+        <v>1606</v>
+      </c>
+      <c r="AB131" s="28">
+        <v>1804</v>
+      </c>
+      <c r="AC131" s="29">
+        <v>10</v>
+      </c>
+      <c r="AD131" s="28">
+        <v>30788</v>
+      </c>
+      <c r="AE131" s="29">
+        <v>1330</v>
+      </c>
+      <c r="AF131" s="45">
+        <v>21584</v>
+      </c>
+      <c r="AG131" s="29">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="132" spans="3:33" s="19" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C132" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="D132" s="30">
+        <v>1618757</v>
+      </c>
+      <c r="E132" s="27">
+        <v>96909</v>
+      </c>
+      <c r="F132" s="26">
+        <v>85103</v>
+      </c>
+      <c r="G132" s="37">
+        <v>6453</v>
+      </c>
+      <c r="H132" s="26">
+        <v>68620</v>
+      </c>
+      <c r="I132" s="27">
+        <v>7394</v>
+      </c>
+      <c r="J132" s="20">
+        <v>142482</v>
+      </c>
+      <c r="K132" s="29">
+        <v>28379</v>
+      </c>
+      <c r="L132" s="28">
+        <v>179002</v>
+      </c>
+      <c r="M132" s="29">
+        <v>8302</v>
+      </c>
+      <c r="N132" s="28">
+        <v>230158</v>
+      </c>
+      <c r="O132" s="29">
+        <v>32877</v>
+      </c>
+      <c r="P132" s="28">
+        <v>362342</v>
+      </c>
+      <c r="Q132" s="29">
+        <v>3807</v>
+      </c>
+      <c r="R132" s="28">
+        <v>235158</v>
+      </c>
+      <c r="S132" s="29">
+        <v>26834</v>
+      </c>
+      <c r="T132" s="28">
+        <v>261188</v>
+      </c>
+      <c r="U132" s="29">
+        <v>36914</v>
+      </c>
+      <c r="V132" s="28">
+        <v>57342</v>
+      </c>
+      <c r="W132" s="29">
+        <v>9312</v>
+      </c>
+      <c r="X132" s="28">
+        <v>45445</v>
+      </c>
+      <c r="Y132" s="29">
+        <v>5830</v>
+      </c>
+      <c r="Z132" s="28">
+        <v>24698</v>
+      </c>
+      <c r="AA132" s="29">
+        <v>1606</v>
+      </c>
+      <c r="AB132" s="28">
+        <v>1804</v>
+      </c>
+      <c r="AC132" s="29">
+        <v>10</v>
+      </c>
+      <c r="AD132" s="28">
+        <v>30788</v>
+      </c>
+      <c r="AE132" s="29">
+        <v>1330</v>
+      </c>
+      <c r="AF132" s="45">
+        <v>21584</v>
+      </c>
+      <c r="AG132" s="29">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="133" spans="3:33" s="19" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C133" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="D133" s="30">
+        <v>1634010</v>
+      </c>
+      <c r="E133" s="27">
+        <v>97529</v>
+      </c>
+      <c r="F133" s="26">
+        <v>85998</v>
+      </c>
+      <c r="G133" s="37">
+        <v>6566</v>
+      </c>
+      <c r="H133" s="26">
+        <v>71105</v>
+      </c>
+      <c r="I133" s="27">
+        <v>7633</v>
+      </c>
+      <c r="J133" s="20">
+        <v>142704</v>
+      </c>
+      <c r="K133" s="29">
+        <v>28477</v>
+      </c>
+      <c r="L133" s="28">
+        <v>179364</v>
+      </c>
+      <c r="M133" s="29">
+        <v>8349</v>
+      </c>
+      <c r="N133" s="28">
+        <v>230555</v>
+      </c>
+      <c r="O133" s="29">
+        <v>32955</v>
+      </c>
+      <c r="P133" s="28">
+        <v>370680</v>
+      </c>
+      <c r="Q133" s="29">
+        <v>3968</v>
+      </c>
+      <c r="R133" s="28">
+        <v>236631</v>
+      </c>
+      <c r="S133" s="29">
+        <v>29035</v>
+      </c>
+      <c r="T133" s="28">
+        <v>265231</v>
+      </c>
+      <c r="U133" s="29">
+        <v>37048</v>
+      </c>
+      <c r="V133" s="28">
+        <v>57455</v>
+      </c>
+      <c r="W133" s="29">
+        <v>9334</v>
+      </c>
+      <c r="X133" s="28">
+        <v>45578</v>
+      </c>
+      <c r="Y133" s="29">
+        <v>5856</v>
+      </c>
+      <c r="Z133" s="28">
+        <v>24735</v>
+      </c>
+      <c r="AA133" s="29">
+        <v>1615</v>
+      </c>
+      <c r="AB133" s="28">
+        <v>1804</v>
+      </c>
+      <c r="AC133" s="29">
+        <v>10</v>
+      </c>
+      <c r="AD133" s="28">
+        <v>31007</v>
+      </c>
+      <c r="AE133" s="29">
+        <v>1342</v>
+      </c>
+      <c r="AF133" s="45">
+        <v>21905</v>
+      </c>
+      <c r="AG133" s="29">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="134" spans="3:33" s="19" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C134" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="D134" s="30">
+        <v>1658896</v>
+      </c>
+      <c r="E134" s="27">
+        <v>98119</v>
+      </c>
+      <c r="F134" s="26">
+        <v>86939</v>
+      </c>
+      <c r="G134" s="37">
+        <v>6671</v>
+      </c>
+      <c r="H134" s="26">
+        <v>74560</v>
+      </c>
+      <c r="I134" s="27">
+        <v>8134</v>
+      </c>
+      <c r="J134" s="20">
+        <v>142852</v>
+      </c>
+      <c r="K134" s="29">
+        <v>28543</v>
+      </c>
+      <c r="L134" s="28">
+        <v>179717</v>
+      </c>
+      <c r="M134" s="29">
+        <v>8411</v>
+      </c>
+      <c r="N134" s="28">
+        <v>231139</v>
+      </c>
+      <c r="O134" s="29">
+        <v>33072</v>
+      </c>
+      <c r="P134" s="28">
+        <v>379051</v>
+      </c>
+      <c r="Q134" s="29">
+        <v>4142</v>
+      </c>
+      <c r="R134" s="28">
+        <v>237141</v>
+      </c>
+      <c r="S134" s="29">
+        <v>29036</v>
+      </c>
+      <c r="T134" s="28">
+        <v>267244</v>
+      </c>
+      <c r="U134" s="29">
+        <v>37460</v>
+      </c>
+      <c r="V134" s="28">
+        <v>57592</v>
+      </c>
+      <c r="W134" s="29">
+        <v>9364</v>
+      </c>
+      <c r="X134" s="28">
+        <v>45768</v>
+      </c>
+      <c r="Y134" s="29">
+        <v>5871</v>
+      </c>
+      <c r="Z134" s="28">
+        <v>24803</v>
+      </c>
+      <c r="AA134" s="29">
+        <v>1631</v>
+      </c>
+      <c r="AB134" s="28">
+        <v>1805</v>
+      </c>
+      <c r="AC134" s="29">
+        <v>10</v>
+      </c>
+      <c r="AD134" s="28">
+        <v>31292</v>
+      </c>
+      <c r="AE134" s="29">
+        <v>1356</v>
+      </c>
+      <c r="AF134" s="45">
+        <v>22382</v>
+      </c>
+      <c r="AG134" s="29">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="135" spans="3:33" s="19" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C135" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="D135" s="30">
+        <v>1675258</v>
+      </c>
+      <c r="E135" s="27">
+        <v>98889</v>
+      </c>
+      <c r="F135" s="26">
+        <v>87902</v>
+      </c>
+      <c r="G135" s="37">
+        <v>6799</v>
+      </c>
+      <c r="H135" s="26">
+        <v>78023</v>
+      </c>
+      <c r="I135" s="27">
+        <v>8597</v>
+      </c>
+      <c r="J135" s="20">
+        <v>146122</v>
+      </c>
+      <c r="K135" s="29">
+        <v>28608</v>
+      </c>
+      <c r="L135" s="28">
+        <v>180458</v>
+      </c>
+      <c r="M135" s="29">
+        <v>8450</v>
+      </c>
+      <c r="N135" s="28">
+        <v>231732</v>
+      </c>
+      <c r="O135" s="29">
+        <v>33142</v>
+      </c>
+      <c r="P135" s="28">
+        <v>387623</v>
+      </c>
+      <c r="Q135" s="29">
+        <v>4374</v>
+      </c>
+      <c r="R135" s="28">
+        <v>238278</v>
+      </c>
+      <c r="S135" s="29">
+        <v>23037</v>
+      </c>
+      <c r="T135" s="28">
+        <v>269131</v>
+      </c>
+      <c r="U135" s="29">
+        <v>37837</v>
+      </c>
+      <c r="V135" s="28">
+        <v>57849</v>
+      </c>
+      <c r="W135" s="29">
+        <v>9388</v>
+      </c>
+      <c r="X135" s="28">
+        <v>45950</v>
+      </c>
+      <c r="Y135" s="29">
+        <v>5903</v>
+      </c>
+      <c r="Z135" s="28">
+        <v>24841</v>
+      </c>
+      <c r="AA135" s="29">
+        <v>1639</v>
+      </c>
+      <c r="AB135" s="28">
+        <v>1805</v>
+      </c>
+      <c r="AC135" s="29">
+        <v>10</v>
+      </c>
+      <c r="AD135" s="28">
+        <v>31596</v>
+      </c>
+      <c r="AE135" s="29">
+        <v>1369</v>
+      </c>
+      <c r="AF135" s="45">
+        <v>22811</v>
+      </c>
+      <c r="AG135" s="29">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="136" spans="3:33" s="19" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C136" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="D136" s="30">
+        <v>1694864</v>
+      </c>
+      <c r="E136" s="27">
+        <v>100304</v>
+      </c>
+      <c r="F136" s="26">
+        <v>88856</v>
+      </c>
+      <c r="G136" s="37">
+        <v>6918</v>
+      </c>
+      <c r="H136" s="26">
+        <v>81400</v>
+      </c>
+      <c r="I136" s="27">
+        <v>9044</v>
+      </c>
+      <c r="J136" s="20">
+        <v>146657</v>
+      </c>
+      <c r="K136" s="29">
+        <v>28660</v>
+      </c>
+      <c r="L136" s="28">
+        <v>181196</v>
+      </c>
+      <c r="M136" s="29">
+        <v>8489</v>
+      </c>
+      <c r="N136" s="28">
+        <v>232248</v>
+      </c>
+      <c r="O136" s="29">
+        <v>33229</v>
+      </c>
+      <c r="P136" s="28">
+        <v>396575</v>
+      </c>
+      <c r="Q136" s="29">
+        <v>4555</v>
+      </c>
+      <c r="R136" s="28">
+        <v>238936</v>
+      </c>
+      <c r="S136" s="29">
+        <v>29039</v>
+      </c>
+      <c r="T136" s="28">
+        <v>271226</v>
+      </c>
+      <c r="U136" s="29">
+        <v>38161</v>
+      </c>
+      <c r="V136" s="28">
+        <v>58061</v>
+      </c>
+      <c r="W136" s="29">
+        <v>9443</v>
+      </c>
+      <c r="X136" s="28">
+        <v>46126</v>
+      </c>
+      <c r="Y136" s="29">
+        <v>5931</v>
+      </c>
+      <c r="Z136" s="28">
+        <v>24876</v>
+      </c>
+      <c r="AA136" s="29">
+        <v>1645</v>
+      </c>
+      <c r="AB136" s="28">
+        <v>1805</v>
+      </c>
+      <c r="AC136" s="29">
+        <v>10</v>
+      </c>
+      <c r="AD136" s="28">
+        <v>31946</v>
+      </c>
+      <c r="AE136" s="29">
+        <v>1383</v>
+      </c>
+      <c r="AF136" s="45">
+        <v>23204</v>
+      </c>
+      <c r="AG136" s="29">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="137" spans="3:33" s="19" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C137" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="D137" s="30">
+        <v>1716078</v>
+      </c>
+      <c r="E137" s="27">
+        <v>101567</v>
+      </c>
+      <c r="F137" s="26">
+        <v>89741</v>
+      </c>
+      <c r="G137" s="37">
+        <v>6996</v>
+      </c>
+      <c r="H137" s="26">
+        <v>84627</v>
+      </c>
+      <c r="I137" s="27">
+        <v>9415</v>
+      </c>
+      <c r="J137" s="20">
+        <v>148436</v>
+      </c>
+      <c r="K137" s="29">
+        <v>28717</v>
+      </c>
+      <c r="L137" s="28">
+        <v>181482</v>
+      </c>
+      <c r="M137" s="29">
+        <v>8500</v>
+      </c>
+      <c r="N137" s="28">
+        <v>232664</v>
+      </c>
+      <c r="O137" s="29">
+        <v>33340</v>
+      </c>
+      <c r="P137" s="28">
+        <v>405843</v>
+      </c>
+      <c r="Q137" s="29">
+        <v>4693</v>
+      </c>
+      <c r="R137" s="28">
+        <v>239600</v>
+      </c>
+      <c r="S137" s="29">
+        <v>29043</v>
+      </c>
+      <c r="T137" s="28">
+        <v>272830</v>
+      </c>
+      <c r="U137" s="29">
+        <v>38376</v>
+      </c>
+      <c r="V137" s="28">
+        <v>58186</v>
+      </c>
+      <c r="W137" s="29">
+        <v>9453</v>
+      </c>
+      <c r="X137" s="28">
+        <v>46257</v>
+      </c>
+      <c r="Y137" s="29">
+        <v>5951</v>
+      </c>
+      <c r="Z137" s="28">
+        <v>24929</v>
+      </c>
+      <c r="AA137" s="29">
+        <v>1651</v>
+      </c>
+      <c r="AB137" s="28">
+        <v>1806</v>
+      </c>
+      <c r="AC137" s="29">
+        <v>10</v>
+      </c>
+      <c r="AD137" s="28">
+        <v>32203</v>
+      </c>
+      <c r="AE137" s="29">
+        <v>1396</v>
+      </c>
+      <c r="AF137" s="45">
+        <v>23672</v>
+      </c>
+      <c r="AG137" s="29">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="138" spans="3:33" s="19" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C138" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="D138" s="30">
+        <v>1734040</v>
+      </c>
+      <c r="E138" s="27">
+        <v>102640</v>
+      </c>
+      <c r="F138" s="26">
+        <v>90516</v>
+      </c>
+      <c r="G138" s="27">
+        <v>7092</v>
+      </c>
+      <c r="H138" s="26">
+        <v>87512</v>
+      </c>
+      <c r="I138" s="27">
+        <v>9779</v>
+      </c>
+      <c r="J138" s="28">
+        <v>148524</v>
+      </c>
+      <c r="K138" s="29">
+        <v>28746</v>
+      </c>
+      <c r="L138" s="28">
+        <v>181815</v>
+      </c>
+      <c r="M138" s="29">
+        <v>8511</v>
+      </c>
+      <c r="N138" s="28">
+        <v>233019</v>
+      </c>
+      <c r="O138" s="29">
+        <v>33415</v>
+      </c>
+      <c r="P138" s="28">
+        <v>414878</v>
+      </c>
+      <c r="Q138" s="29">
+        <v>4855</v>
+      </c>
+      <c r="R138" s="28">
+        <v>239801</v>
+      </c>
+      <c r="S138" s="29">
+        <v>29045</v>
+      </c>
+      <c r="T138" s="28">
+        <v>274766</v>
+      </c>
+      <c r="U138" s="29">
+        <v>38489</v>
+      </c>
+      <c r="V138" s="28">
+        <v>58381</v>
+      </c>
+      <c r="W138" s="29">
+        <v>9467</v>
+      </c>
+      <c r="X138" s="28">
+        <v>46442</v>
+      </c>
+      <c r="Y138" s="29">
+        <v>5956</v>
+      </c>
+      <c r="Z138" s="28">
+        <v>24990</v>
+      </c>
+      <c r="AA138" s="29">
+        <v>1652</v>
+      </c>
+      <c r="AB138" s="28">
+        <v>1806</v>
+      </c>
+      <c r="AC138" s="29">
+        <v>10</v>
+      </c>
+      <c r="AD138" s="28">
+        <v>32500</v>
+      </c>
+      <c r="AE138" s="29">
+        <v>1410</v>
+      </c>
+      <c r="AF138" s="28">
+        <v>24012</v>
+      </c>
+      <c r="AG138" s="29">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="139" spans="3:33" s="19" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C139" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="D139" s="30">
+        <v>1783638</v>
+      </c>
+      <c r="E139" s="27">
+        <v>104247</v>
+      </c>
+      <c r="F139" s="26">
+        <v>91351</v>
+      </c>
+      <c r="G139" s="27">
+        <v>7305</v>
+      </c>
+      <c r="H139" s="26">
+        <v>90664</v>
+      </c>
+      <c r="I139" s="27">
+        <v>9930</v>
+      </c>
+      <c r="J139" s="28">
+        <v>148775</v>
+      </c>
+      <c r="K139" s="29">
+        <v>28776</v>
+      </c>
+      <c r="L139" s="28">
+        <v>182028</v>
+      </c>
+      <c r="M139" s="29">
+        <v>8522</v>
+      </c>
+      <c r="N139" s="28">
+        <v>233197</v>
+      </c>
+      <c r="O139" s="29">
+        <v>33475</v>
+      </c>
+      <c r="P139" s="28">
+        <v>423741</v>
+      </c>
+      <c r="Q139" s="29">
+        <v>5037</v>
+      </c>
+      <c r="R139" s="28">
+        <v>240010</v>
+      </c>
+      <c r="S139" s="29">
+        <v>29858</v>
+      </c>
+      <c r="T139" s="28">
+        <v>276336</v>
+      </c>
+      <c r="U139" s="29">
+        <v>39045</v>
+      </c>
+      <c r="V139" s="28">
+        <v>58517</v>
+      </c>
+      <c r="W139" s="29">
+        <v>9486</v>
+      </c>
+      <c r="X139" s="28">
+        <v>46545</v>
+      </c>
+      <c r="Y139" s="29">
+        <v>5962</v>
+      </c>
+      <c r="Z139" s="28">
+        <v>25062</v>
+      </c>
+      <c r="AA139" s="29">
+        <v>1650</v>
+      </c>
+      <c r="AB139" s="28">
+        <v>1806</v>
+      </c>
+      <c r="AC139" s="29">
+        <v>10</v>
+      </c>
+      <c r="AD139" s="28">
+        <v>32700</v>
+      </c>
+      <c r="AE139" s="29">
+        <v>1424</v>
+      </c>
+      <c r="AF139" s="28">
+        <v>24340</v>
+      </c>
+      <c r="AG139" s="29">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="140" spans="3:33" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C140" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="D140" s="30">
+        <v>1798330</v>
+      </c>
+      <c r="E140" s="27">
+        <v>105008</v>
+      </c>
+      <c r="F140" s="26">
+        <v>93435</v>
+      </c>
+      <c r="G140" s="27">
+        <v>10167</v>
+      </c>
+      <c r="H140" s="26">
+        <v>92151</v>
+      </c>
+      <c r="I140" s="27">
+        <v>7344</v>
+      </c>
+      <c r="J140" s="28">
+        <v>147935</v>
+      </c>
+      <c r="K140" s="29">
+        <v>28883</v>
+      </c>
+      <c r="L140" s="28">
+        <v>182370</v>
+      </c>
+      <c r="M140" s="29">
+        <v>8551</v>
+      </c>
+      <c r="N140" s="28">
+        <v>233515</v>
+      </c>
+      <c r="O140" s="29">
+        <v>33530</v>
+      </c>
+      <c r="P140" s="28">
+        <v>432277</v>
+      </c>
+      <c r="Q140" s="29">
+        <v>5215</v>
+      </c>
+      <c r="R140" s="28">
+        <v>240304</v>
+      </c>
+      <c r="S140" s="29">
+        <v>29858</v>
+      </c>
+      <c r="T140" s="28">
+        <v>277989</v>
+      </c>
+      <c r="U140" s="29">
+        <v>39369</v>
+      </c>
+      <c r="V140" s="28">
+        <v>58615</v>
+      </c>
+      <c r="W140" s="29">
+        <v>9505</v>
+      </c>
+      <c r="X140" s="28">
+        <v>46647</v>
+      </c>
+      <c r="Y140" s="29">
+        <v>5967</v>
+      </c>
+      <c r="Z140" s="28">
+        <v>25066</v>
+      </c>
+      <c r="AA140" s="29">
+        <v>1658</v>
+      </c>
+      <c r="AB140" s="28">
+        <v>1806</v>
+      </c>
+      <c r="AC140" s="29">
+        <v>10</v>
+      </c>
+      <c r="AD140" s="28">
+        <v>32895</v>
+      </c>
+      <c r="AE140" s="29">
+        <v>1436</v>
+      </c>
+      <c r="AF140" s="28">
+        <v>24823</v>
+      </c>
+      <c r="AG140" s="29">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="141" spans="3:33" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D141" s="30"/>
+      <c r="E141" s="27"/>
+      <c r="F141" s="26"/>
+      <c r="G141" s="27"/>
+      <c r="H141" s="26"/>
+      <c r="I141" s="27"/>
+      <c r="J141" s="28"/>
+      <c r="K141" s="29"/>
+      <c r="L141" s="28"/>
+      <c r="M141" s="29"/>
+      <c r="N141" s="28"/>
+      <c r="O141" s="29"/>
+      <c r="P141" s="28"/>
+      <c r="Q141" s="29"/>
+      <c r="R141" s="28"/>
+      <c r="S141" s="29"/>
+      <c r="T141" s="28"/>
+      <c r="U141" s="29"/>
+      <c r="V141" s="28"/>
+      <c r="W141" s="29"/>
+      <c r="X141" s="28"/>
+      <c r="Y141" s="29"/>
+      <c r="Z141" s="28"/>
+      <c r="AA141" s="29"/>
+      <c r="AB141" s="28"/>
+      <c r="AC141" s="29"/>
+      <c r="AD141" s="28"/>
+      <c r="AE141" s="29"/>
+      <c r="AF141" s="28"/>
+      <c r="AG141" s="29"/>
+    </row>
+    <row r="142" spans="3:33" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D142" s="30"/>
+      <c r="E142" s="27"/>
+      <c r="F142" s="26"/>
+      <c r="G142" s="27"/>
+      <c r="H142" s="26"/>
+      <c r="I142" s="27"/>
+      <c r="J142" s="28"/>
+      <c r="K142" s="29"/>
+      <c r="L142" s="28"/>
+      <c r="M142" s="29"/>
+      <c r="N142" s="28"/>
+      <c r="O142" s="29"/>
+      <c r="P142" s="28"/>
+      <c r="Q142" s="29"/>
+      <c r="R142" s="28"/>
+      <c r="S142" s="29"/>
+      <c r="T142" s="28"/>
+      <c r="U142" s="29"/>
+      <c r="V142" s="28"/>
+      <c r="W142" s="29"/>
+      <c r="X142" s="28"/>
+      <c r="Y142" s="29"/>
+      <c r="Z142" s="28"/>
+      <c r="AA142" s="29"/>
+      <c r="AB142" s="28"/>
+      <c r="AC142" s="29"/>
+      <c r="AD142" s="28"/>
+      <c r="AE142" s="29"/>
+      <c r="AF142" s="28"/>
+      <c r="AG142" s="29"/>
+    </row>
+    <row r="143" spans="3:33" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D143" s="30"/>
+      <c r="E143" s="27"/>
+      <c r="F143" s="26"/>
+      <c r="G143" s="27"/>
+      <c r="H143" s="26"/>
+      <c r="I143" s="27"/>
+      <c r="J143" s="28"/>
+      <c r="K143" s="29"/>
+      <c r="L143" s="28"/>
+      <c r="M143" s="29"/>
+      <c r="N143" s="28"/>
+      <c r="O143" s="29"/>
+      <c r="P143" s="28"/>
+      <c r="Q143" s="29"/>
+      <c r="R143" s="28"/>
+      <c r="S143" s="29"/>
+      <c r="T143" s="28"/>
+      <c r="U143" s="29"/>
+      <c r="V143" s="28"/>
+      <c r="W143" s="29"/>
+      <c r="X143" s="28"/>
+      <c r="Y143" s="29"/>
+      <c r="Z143" s="28"/>
+      <c r="AA143" s="29"/>
+      <c r="AB143" s="28"/>
+      <c r="AC143" s="29"/>
+      <c r="AD143" s="28"/>
+      <c r="AE143" s="29"/>
+      <c r="AF143" s="28"/>
+      <c r="AG143" s="29"/>
+    </row>
+    <row r="144" spans="3:33" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D144" s="30"/>
+      <c r="E144" s="27"/>
+      <c r="F144" s="26"/>
+      <c r="G144" s="27"/>
+      <c r="H144" s="26"/>
+      <c r="I144" s="27"/>
+      <c r="J144" s="28"/>
+      <c r="K144" s="29"/>
+      <c r="L144" s="28"/>
+      <c r="M144" s="29"/>
+      <c r="N144" s="28"/>
+      <c r="O144" s="29"/>
+      <c r="P144" s="28"/>
+      <c r="Q144" s="29"/>
+      <c r="R144" s="28"/>
+      <c r="S144" s="29"/>
+      <c r="T144" s="28"/>
+      <c r="U144" s="29"/>
+      <c r="V144" s="28"/>
+      <c r="W144" s="29"/>
+      <c r="X144" s="28"/>
+      <c r="Y144" s="29"/>
+      <c r="Z144" s="28"/>
+      <c r="AA144" s="29"/>
+      <c r="AB144" s="28"/>
+      <c r="AC144" s="29"/>
+      <c r="AD144" s="28"/>
+      <c r="AE144" s="29"/>
+      <c r="AF144" s="28"/>
+      <c r="AG144" s="29"/>
+    </row>
+    <row r="145" spans="4:33" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D145" s="30"/>
+      <c r="E145" s="27"/>
+      <c r="F145" s="26"/>
+      <c r="G145" s="27"/>
+      <c r="H145" s="26"/>
+      <c r="I145" s="27"/>
+      <c r="J145" s="28"/>
+      <c r="K145" s="29"/>
+      <c r="L145" s="28"/>
+      <c r="M145" s="29"/>
+      <c r="N145" s="28"/>
+      <c r="O145" s="29"/>
+      <c r="P145" s="28"/>
+      <c r="Q145" s="29"/>
+      <c r="R145" s="28"/>
+      <c r="S145" s="29"/>
+      <c r="T145" s="28"/>
+      <c r="U145" s="29"/>
+      <c r="V145" s="28"/>
+      <c r="W145" s="29"/>
+      <c r="X145" s="28"/>
+      <c r="Y145" s="29"/>
+      <c r="Z145" s="28"/>
+      <c r="AA145" s="29"/>
+      <c r="AB145" s="28"/>
+      <c r="AC145" s="29"/>
+      <c r="AD145" s="28"/>
+      <c r="AE145" s="29"/>
+      <c r="AF145" s="28"/>
+      <c r="AG145" s="29"/>
+    </row>
+    <row r="146" spans="4:33" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D146" s="30"/>
+      <c r="E146" s="27"/>
+      <c r="F146" s="26"/>
+      <c r="G146" s="27"/>
+      <c r="H146" s="26"/>
+      <c r="I146" s="27"/>
+      <c r="J146" s="28"/>
+      <c r="K146" s="29"/>
+      <c r="L146" s="28"/>
+      <c r="M146" s="29"/>
+      <c r="N146" s="28"/>
+      <c r="O146" s="29"/>
+      <c r="P146" s="28"/>
+      <c r="Q146" s="29"/>
+      <c r="R146" s="28"/>
+      <c r="S146" s="29"/>
+      <c r="T146" s="28"/>
+      <c r="U146" s="29"/>
+      <c r="V146" s="28"/>
+      <c r="W146" s="29"/>
+      <c r="X146" s="28"/>
+      <c r="Y146" s="29"/>
+      <c r="Z146" s="28"/>
+      <c r="AA146" s="29"/>
+      <c r="AB146" s="28"/>
+      <c r="AC146" s="29"/>
+      <c r="AD146" s="28"/>
+      <c r="AE146" s="29"/>
+      <c r="AF146" s="28"/>
+      <c r="AG146" s="29"/>
+    </row>
+    <row r="147" spans="4:33" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D147" s="30"/>
+      <c r="E147" s="27"/>
+      <c r="F147" s="26"/>
+      <c r="G147" s="27"/>
+      <c r="H147" s="26"/>
+      <c r="I147" s="27"/>
+      <c r="J147" s="28"/>
+      <c r="K147" s="29"/>
+      <c r="L147" s="28"/>
+      <c r="M147" s="29"/>
+      <c r="N147" s="28"/>
+      <c r="O147" s="29"/>
+      <c r="P147" s="28"/>
+      <c r="Q147" s="29"/>
+      <c r="R147" s="28"/>
+      <c r="S147" s="29"/>
+      <c r="T147" s="28"/>
+      <c r="U147" s="29"/>
+      <c r="V147" s="28"/>
+      <c r="W147" s="29"/>
+      <c r="X147" s="28"/>
+      <c r="Y147" s="29"/>
+      <c r="Z147" s="28"/>
+      <c r="AA147" s="29"/>
+      <c r="AB147" s="28"/>
+      <c r="AC147" s="29"/>
+      <c r="AD147" s="28"/>
+      <c r="AE147" s="29"/>
+      <c r="AF147" s="28"/>
+      <c r="AG147" s="29"/>
+    </row>
+    <row r="148" spans="4:33" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D148" s="30"/>
+      <c r="E148" s="27"/>
+      <c r="F148" s="26"/>
+      <c r="G148" s="27"/>
+      <c r="H148" s="26"/>
+      <c r="I148" s="27"/>
+      <c r="J148" s="28"/>
+      <c r="K148" s="29"/>
+      <c r="L148" s="28"/>
+      <c r="M148" s="29"/>
+      <c r="N148" s="28"/>
+      <c r="O148" s="29"/>
+      <c r="P148" s="28"/>
+      <c r="Q148" s="29"/>
+      <c r="R148" s="28"/>
+      <c r="S148" s="29"/>
+      <c r="T148" s="28"/>
+      <c r="U148" s="29"/>
+      <c r="V148" s="28"/>
+      <c r="W148" s="29"/>
+      <c r="X148" s="28"/>
+      <c r="Y148" s="29"/>
+      <c r="Z148" s="28"/>
+      <c r="AA148" s="29"/>
+      <c r="AB148" s="28"/>
+      <c r="AC148" s="29"/>
+      <c r="AD148" s="28"/>
+      <c r="AE148" s="29"/>
+      <c r="AF148" s="28"/>
+      <c r="AG148" s="29"/>
+    </row>
+    <row r="149" spans="4:33" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D149" s="30"/>
+      <c r="E149" s="27"/>
+      <c r="F149" s="26"/>
+      <c r="G149" s="27"/>
+      <c r="H149" s="26"/>
+      <c r="I149" s="27"/>
+      <c r="J149" s="28"/>
+      <c r="K149" s="29"/>
+      <c r="L149" s="28"/>
+      <c r="M149" s="29"/>
+      <c r="N149" s="28"/>
+      <c r="O149" s="29"/>
+      <c r="P149" s="28"/>
+      <c r="Q149" s="29"/>
+      <c r="R149" s="28"/>
+      <c r="S149" s="29"/>
+      <c r="T149" s="28"/>
+      <c r="U149" s="29"/>
+      <c r="V149" s="28"/>
+      <c r="W149" s="29"/>
+      <c r="X149" s="28"/>
+      <c r="Y149" s="29"/>
+      <c r="Z149" s="28"/>
+      <c r="AA149" s="29"/>
+      <c r="AB149" s="28"/>
+      <c r="AC149" s="29"/>
+      <c r="AD149" s="28"/>
+      <c r="AE149" s="29"/>
+      <c r="AF149" s="28"/>
+      <c r="AG149" s="29"/>
+    </row>
+    <row r="150" spans="4:33" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D150" s="30"/>
+      <c r="E150" s="27"/>
+      <c r="F150" s="26"/>
+      <c r="G150" s="27"/>
+      <c r="H150" s="26"/>
+      <c r="I150" s="27"/>
+      <c r="J150" s="28"/>
+      <c r="K150" s="29"/>
+      <c r="L150" s="28"/>
+      <c r="M150" s="29"/>
+      <c r="N150" s="28"/>
+      <c r="O150" s="29"/>
+      <c r="P150" s="28"/>
+      <c r="Q150" s="29"/>
+      <c r="R150" s="28"/>
+      <c r="S150" s="29"/>
+      <c r="T150" s="28"/>
+      <c r="U150" s="29"/>
+      <c r="V150" s="28"/>
+      <c r="W150" s="29"/>
+      <c r="X150" s="28"/>
+      <c r="Y150" s="29"/>
+      <c r="Z150" s="28"/>
+      <c r="AA150" s="29"/>
+      <c r="AB150" s="28"/>
+      <c r="AC150" s="29"/>
+      <c r="AD150" s="28"/>
+      <c r="AE150" s="29"/>
+      <c r="AF150" s="28"/>
+      <c r="AG150" s="29"/>
+    </row>
+    <row r="151" spans="4:33" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D151" s="30"/>
+      <c r="E151" s="27"/>
+      <c r="F151" s="26"/>
+      <c r="G151" s="27"/>
+      <c r="H151" s="26"/>
+      <c r="I151" s="27"/>
+      <c r="J151" s="28"/>
+      <c r="K151" s="29"/>
+      <c r="L151" s="28"/>
+      <c r="M151" s="29"/>
+      <c r="N151" s="28"/>
+      <c r="O151" s="29"/>
+      <c r="P151" s="28"/>
+      <c r="Q151" s="29"/>
+      <c r="R151" s="28"/>
+      <c r="S151" s="29"/>
+      <c r="T151" s="28"/>
+      <c r="U151" s="29"/>
+      <c r="V151" s="28"/>
+      <c r="W151" s="29"/>
+      <c r="X151" s="28"/>
+      <c r="Y151" s="29"/>
+      <c r="Z151" s="28"/>
+      <c r="AA151" s="29"/>
+      <c r="AB151" s="28"/>
+      <c r="AC151" s="29"/>
+      <c r="AD151" s="28"/>
+      <c r="AE151" s="29"/>
+      <c r="AF151" s="28"/>
+      <c r="AG151" s="29"/>
+    </row>
+    <row r="152" spans="4:33" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D152" s="30"/>
+      <c r="E152" s="27"/>
+      <c r="F152" s="26"/>
+      <c r="G152" s="27"/>
+      <c r="H152" s="26"/>
+      <c r="I152" s="27"/>
+      <c r="J152" s="28"/>
+      <c r="K152" s="29"/>
+      <c r="L152" s="28"/>
+      <c r="M152" s="29"/>
+      <c r="N152" s="28"/>
+      <c r="O152" s="29"/>
+      <c r="P152" s="28"/>
+      <c r="Q152" s="29"/>
+      <c r="R152" s="28"/>
+      <c r="S152" s="29"/>
+      <c r="T152" s="28"/>
+      <c r="U152" s="29"/>
+      <c r="V152" s="28"/>
+      <c r="W152" s="29"/>
+      <c r="X152" s="28"/>
+      <c r="Y152" s="29"/>
+      <c r="Z152" s="28"/>
+      <c r="AA152" s="29"/>
+      <c r="AB152" s="28"/>
+      <c r="AC152" s="29"/>
+      <c r="AD152" s="28"/>
+      <c r="AE152" s="29"/>
+      <c r="AF152" s="28"/>
+      <c r="AG152" s="29"/>
+    </row>
+    <row r="153" spans="4:33" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D153" s="30"/>
+      <c r="E153" s="27"/>
+      <c r="F153" s="26"/>
+      <c r="G153" s="27"/>
+      <c r="H153" s="26"/>
+      <c r="I153" s="27"/>
+      <c r="J153" s="28"/>
+      <c r="K153" s="29"/>
+      <c r="L153" s="28"/>
+      <c r="M153" s="29"/>
+      <c r="N153" s="28"/>
+      <c r="O153" s="29"/>
+      <c r="P153" s="28"/>
+      <c r="Q153" s="29"/>
+      <c r="R153" s="28"/>
+      <c r="S153" s="29"/>
+      <c r="T153" s="28"/>
+      <c r="U153" s="29"/>
+      <c r="V153" s="28"/>
+      <c r="W153" s="29"/>
+      <c r="X153" s="28"/>
+      <c r="Y153" s="29"/>
+      <c r="Z153" s="28"/>
+      <c r="AA153" s="29"/>
+      <c r="AB153" s="28"/>
+      <c r="AC153" s="29"/>
+      <c r="AD153" s="28"/>
+      <c r="AE153" s="29"/>
+      <c r="AF153" s="28"/>
+      <c r="AG153" s="29"/>
+    </row>
+    <row r="154" spans="4:33" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D154" s="30"/>
+      <c r="E154" s="27"/>
+      <c r="F154" s="26"/>
+      <c r="G154" s="27"/>
+      <c r="H154" s="26"/>
+      <c r="I154" s="27"/>
+      <c r="J154" s="28"/>
+      <c r="K154" s="29"/>
+      <c r="L154" s="28"/>
+      <c r="M154" s="29"/>
+      <c r="N154" s="28"/>
+      <c r="O154" s="29"/>
+      <c r="P154" s="28"/>
+      <c r="Q154" s="29"/>
+      <c r="R154" s="28"/>
+      <c r="S154" s="29"/>
+      <c r="T154" s="28"/>
+      <c r="U154" s="29"/>
+      <c r="V154" s="28"/>
+      <c r="W154" s="29"/>
+      <c r="X154" s="28"/>
+      <c r="Y154" s="29"/>
+      <c r="Z154" s="28"/>
+      <c r="AA154" s="29"/>
+      <c r="AB154" s="28"/>
+      <c r="AC154" s="29"/>
+      <c r="AD154" s="28"/>
+      <c r="AE154" s="29"/>
+      <c r="AF154" s="28"/>
+      <c r="AG154" s="29"/>
+    </row>
+    <row r="155" spans="4:33" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D155" s="30"/>
+      <c r="E155" s="27"/>
+      <c r="F155" s="26"/>
+      <c r="G155" s="27"/>
+      <c r="H155" s="26"/>
+      <c r="I155" s="27"/>
+      <c r="J155" s="28"/>
+      <c r="K155" s="29"/>
+      <c r="L155" s="28"/>
+      <c r="M155" s="29"/>
+      <c r="N155" s="28"/>
+      <c r="O155" s="29"/>
+      <c r="P155" s="28"/>
+      <c r="Q155" s="29"/>
+      <c r="R155" s="28"/>
+      <c r="S155" s="29"/>
+      <c r="T155" s="28"/>
+      <c r="U155" s="29"/>
+      <c r="V155" s="28"/>
+      <c r="W155" s="29"/>
+      <c r="X155" s="28"/>
+      <c r="Y155" s="29"/>
+      <c r="Z155" s="28"/>
+      <c r="AA155" s="29"/>
+      <c r="AB155" s="28"/>
+      <c r="AC155" s="29"/>
+      <c r="AD155" s="28"/>
+      <c r="AE155" s="29"/>
+      <c r="AF155" s="28"/>
+      <c r="AG155" s="29"/>
+    </row>
+    <row r="156" spans="4:33" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D156" s="30"/>
+      <c r="E156" s="27"/>
+      <c r="F156" s="26"/>
+      <c r="G156" s="27"/>
+      <c r="H156" s="26"/>
+      <c r="I156" s="27"/>
+      <c r="J156" s="28"/>
+      <c r="K156" s="29"/>
+      <c r="L156" s="28"/>
+      <c r="M156" s="29"/>
+      <c r="N156" s="28"/>
+      <c r="O156" s="29"/>
+      <c r="P156" s="28"/>
+      <c r="Q156" s="29"/>
+      <c r="R156" s="28"/>
+      <c r="S156" s="29"/>
+      <c r="T156" s="28"/>
+      <c r="U156" s="29"/>
+      <c r="V156" s="28"/>
+      <c r="W156" s="29"/>
+      <c r="X156" s="28"/>
+      <c r="Y156" s="29"/>
+      <c r="Z156" s="28"/>
+      <c r="AA156" s="29"/>
+      <c r="AB156" s="28"/>
+      <c r="AC156" s="29"/>
+      <c r="AD156" s="28"/>
+      <c r="AE156" s="29"/>
+      <c r="AF156" s="28"/>
+      <c r="AG156" s="29"/>
+    </row>
+    <row r="157" spans="4:33" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D157" s="30"/>
+      <c r="E157" s="27"/>
+      <c r="F157" s="26"/>
+      <c r="G157" s="27"/>
+      <c r="H157" s="26"/>
+      <c r="I157" s="27"/>
+      <c r="J157" s="28"/>
+      <c r="K157" s="29"/>
+      <c r="L157" s="28"/>
+      <c r="M157" s="29"/>
+      <c r="N157" s="28"/>
+      <c r="O157" s="29"/>
+      <c r="P157" s="28"/>
+      <c r="Q157" s="29"/>
+      <c r="R157" s="28"/>
+      <c r="S157" s="29"/>
+      <c r="T157" s="28"/>
+      <c r="U157" s="29"/>
+      <c r="V157" s="28"/>
+      <c r="W157" s="29"/>
+      <c r="X157" s="28"/>
+      <c r="Y157" s="29"/>
+      <c r="Z157" s="28"/>
+      <c r="AA157" s="29"/>
+      <c r="AB157" s="28"/>
+      <c r="AC157" s="29"/>
+      <c r="AD157" s="28"/>
+      <c r="AE157" s="29"/>
+      <c r="AF157" s="28"/>
+      <c r="AG157" s="29"/>
+    </row>
+    <row r="158" spans="4:33" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D158" s="30"/>
+      <c r="E158" s="27"/>
+      <c r="F158" s="26"/>
+      <c r="G158" s="27"/>
+      <c r="H158" s="26"/>
+      <c r="I158" s="27"/>
+      <c r="J158" s="28"/>
+      <c r="K158" s="29"/>
+      <c r="L158" s="28"/>
+      <c r="M158" s="29"/>
+      <c r="N158" s="28"/>
+      <c r="O158" s="29"/>
+      <c r="P158" s="28"/>
+      <c r="Q158" s="29"/>
+      <c r="R158" s="28"/>
+      <c r="S158" s="29"/>
+      <c r="T158" s="28"/>
+      <c r="U158" s="29"/>
+      <c r="V158" s="28"/>
+      <c r="W158" s="29"/>
+      <c r="X158" s="28"/>
+      <c r="Y158" s="29"/>
+      <c r="Z158" s="28"/>
+      <c r="AA158" s="29"/>
+      <c r="AB158" s="28"/>
+      <c r="AC158" s="29"/>
+      <c r="AD158" s="28"/>
+      <c r="AE158" s="29"/>
+      <c r="AF158" s="28"/>
+      <c r="AG158" s="29"/>
+    </row>
+    <row r="159" spans="4:33" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D159" s="30"/>
+      <c r="E159" s="27"/>
+      <c r="F159" s="26"/>
+      <c r="G159" s="27"/>
+      <c r="H159" s="26"/>
+      <c r="I159" s="27"/>
+      <c r="J159" s="28"/>
+      <c r="K159" s="29"/>
+      <c r="L159" s="28"/>
+      <c r="M159" s="29"/>
+      <c r="N159" s="28"/>
+      <c r="O159" s="29"/>
+      <c r="P159" s="28"/>
+      <c r="Q159" s="29"/>
+      <c r="R159" s="28"/>
+      <c r="S159" s="29"/>
+      <c r="T159" s="28"/>
+      <c r="U159" s="29"/>
+      <c r="V159" s="28"/>
+      <c r="W159" s="29"/>
+      <c r="X159" s="28"/>
+      <c r="Y159" s="29"/>
+      <c r="Z159" s="28"/>
+      <c r="AA159" s="29"/>
+      <c r="AB159" s="28"/>
+      <c r="AC159" s="29"/>
+      <c r="AD159" s="28"/>
+      <c r="AE159" s="29"/>
+      <c r="AF159" s="28"/>
+      <c r="AG159" s="29"/>
+    </row>
+    <row r="160" spans="4:33" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D160" s="30"/>
+      <c r="E160" s="27"/>
+      <c r="F160" s="26"/>
+      <c r="G160" s="27"/>
+      <c r="H160" s="26"/>
+      <c r="I160" s="27"/>
+      <c r="J160" s="28"/>
+      <c r="K160" s="29"/>
+      <c r="L160" s="28"/>
+      <c r="M160" s="29"/>
+      <c r="N160" s="28"/>
+      <c r="O160" s="29"/>
+      <c r="P160" s="28"/>
+      <c r="Q160" s="29"/>
+      <c r="R160" s="28"/>
+      <c r="S160" s="29"/>
+      <c r="T160" s="28"/>
+      <c r="U160" s="29"/>
+      <c r="V160" s="28"/>
+      <c r="W160" s="29"/>
+      <c r="X160" s="28"/>
+      <c r="Y160" s="29"/>
+      <c r="Z160" s="28"/>
+      <c r="AA160" s="29"/>
+      <c r="AB160" s="28"/>
+      <c r="AC160" s="29"/>
+      <c r="AD160" s="28"/>
+      <c r="AE160" s="29"/>
+      <c r="AF160" s="28"/>
+      <c r="AG160" s="29"/>
+    </row>
+    <row r="161" spans="4:33" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D161" s="30"/>
+      <c r="E161" s="27"/>
+      <c r="F161" s="26"/>
+      <c r="G161" s="27"/>
+      <c r="H161" s="26"/>
+      <c r="I161" s="27"/>
+      <c r="J161" s="28"/>
+      <c r="K161" s="29"/>
+      <c r="L161" s="28"/>
+      <c r="M161" s="29"/>
+      <c r="N161" s="28"/>
+      <c r="O161" s="29"/>
+      <c r="P161" s="28"/>
+      <c r="Q161" s="29"/>
+      <c r="R161" s="28"/>
+      <c r="S161" s="29"/>
+      <c r="T161" s="28"/>
+      <c r="U161" s="29"/>
+      <c r="V161" s="28"/>
+      <c r="W161" s="29"/>
+      <c r="X161" s="28"/>
+      <c r="Y161" s="29"/>
+      <c r="Z161" s="28"/>
+      <c r="AA161" s="29"/>
+      <c r="AB161" s="28"/>
+      <c r="AC161" s="29"/>
+      <c r="AD161" s="28"/>
+      <c r="AE161" s="29"/>
+      <c r="AF161" s="28"/>
+      <c r="AG161" s="29"/>
+    </row>
+    <row r="162" spans="4:33" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D162" s="30"/>
+      <c r="E162" s="27"/>
+      <c r="F162" s="26"/>
+      <c r="G162" s="27"/>
+      <c r="H162" s="26"/>
+      <c r="I162" s="27"/>
+      <c r="J162" s="28"/>
+      <c r="K162" s="29"/>
+      <c r="L162" s="28"/>
+      <c r="M162" s="29"/>
+      <c r="N162" s="28"/>
+      <c r="O162" s="29"/>
+      <c r="P162" s="28"/>
+      <c r="Q162" s="29"/>
+      <c r="R162" s="28"/>
+      <c r="S162" s="29"/>
+      <c r="T162" s="28"/>
+      <c r="U162" s="29"/>
+      <c r="V162" s="28"/>
+      <c r="W162" s="29"/>
+      <c r="X162" s="28"/>
+      <c r="Y162" s="29"/>
+      <c r="Z162" s="28"/>
+      <c r="AA162" s="29"/>
+      <c r="AB162" s="28"/>
+      <c r="AC162" s="29"/>
+      <c r="AD162" s="28"/>
+      <c r="AE162" s="29"/>
+      <c r="AF162" s="28"/>
+      <c r="AG162" s="29"/>
+    </row>
+    <row r="163" spans="4:33" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D163" s="30"/>
+      <c r="E163" s="27"/>
+      <c r="F163" s="26"/>
+      <c r="G163" s="27"/>
+      <c r="H163" s="26"/>
+      <c r="I163" s="27"/>
+      <c r="J163" s="28"/>
+      <c r="K163" s="29"/>
+      <c r="L163" s="28"/>
+      <c r="M163" s="29"/>
+      <c r="N163" s="28"/>
+      <c r="O163" s="29"/>
+      <c r="P163" s="28"/>
+      <c r="Q163" s="29"/>
+      <c r="R163" s="28"/>
+      <c r="S163" s="29"/>
+      <c r="T163" s="28"/>
+      <c r="U163" s="29"/>
+      <c r="V163" s="28"/>
+      <c r="W163" s="29"/>
+      <c r="X163" s="28"/>
+      <c r="Y163" s="29"/>
+      <c r="Z163" s="28"/>
+      <c r="AA163" s="29"/>
+      <c r="AB163" s="28"/>
+      <c r="AC163" s="29"/>
+      <c r="AD163" s="28"/>
+      <c r="AE163" s="29"/>
+      <c r="AF163" s="28"/>
+      <c r="AG163" s="29"/>
+    </row>
+    <row r="164" spans="4:33" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D164" s="30"/>
+      <c r="E164" s="27"/>
+      <c r="F164" s="26"/>
+      <c r="G164" s="27"/>
+      <c r="H164" s="26"/>
+      <c r="I164" s="27"/>
+      <c r="J164" s="28"/>
+      <c r="K164" s="29"/>
+      <c r="L164" s="28"/>
+      <c r="M164" s="29"/>
+      <c r="N164" s="28"/>
+      <c r="O164" s="29"/>
+      <c r="P164" s="28"/>
+      <c r="Q164" s="29"/>
+      <c r="R164" s="28"/>
+      <c r="S164" s="29"/>
+      <c r="T164" s="28"/>
+      <c r="U164" s="29"/>
+      <c r="V164" s="28"/>
+      <c r="W164" s="29"/>
+      <c r="X164" s="28"/>
+      <c r="Y164" s="29"/>
+      <c r="Z164" s="28"/>
+      <c r="AA164" s="29"/>
+      <c r="AB164" s="28"/>
+      <c r="AC164" s="29"/>
+      <c r="AD164" s="28"/>
+      <c r="AE164" s="29"/>
+      <c r="AF164" s="28"/>
+      <c r="AG164" s="29"/>
+    </row>
+    <row r="165" spans="4:33" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D165" s="30"/>
+      <c r="E165" s="27"/>
+      <c r="F165" s="26"/>
+      <c r="G165" s="27"/>
+      <c r="H165" s="26"/>
+      <c r="I165" s="27"/>
+      <c r="J165" s="28"/>
+      <c r="K165" s="29"/>
+      <c r="L165" s="28"/>
+      <c r="M165" s="29"/>
+      <c r="N165" s="28"/>
+      <c r="O165" s="29"/>
+      <c r="P165" s="28"/>
+      <c r="Q165" s="29"/>
+      <c r="R165" s="28"/>
+      <c r="S165" s="29"/>
+      <c r="T165" s="28"/>
+      <c r="U165" s="29"/>
+      <c r="V165" s="28"/>
+      <c r="W165" s="29"/>
+      <c r="X165" s="28"/>
+      <c r="Y165" s="29"/>
+      <c r="Z165" s="28"/>
+      <c r="AA165" s="29"/>
+      <c r="AB165" s="28"/>
+      <c r="AC165" s="29"/>
+      <c r="AD165" s="28"/>
+      <c r="AE165" s="29"/>
+      <c r="AF165" s="28"/>
+      <c r="AG165" s="29"/>
+    </row>
+    <row r="166" spans="4:33" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D166" s="30"/>
+      <c r="E166" s="27"/>
+      <c r="F166" s="26"/>
+      <c r="G166" s="27"/>
+      <c r="H166" s="26"/>
+      <c r="I166" s="27"/>
+      <c r="J166" s="28"/>
+      <c r="K166" s="29"/>
+      <c r="L166" s="28"/>
+      <c r="M166" s="29"/>
+      <c r="N166" s="28"/>
+      <c r="O166" s="29"/>
+      <c r="P166" s="28"/>
+      <c r="Q166" s="29"/>
+      <c r="R166" s="28"/>
+      <c r="S166" s="29"/>
+      <c r="T166" s="28"/>
+      <c r="U166" s="29"/>
+      <c r="V166" s="28"/>
+      <c r="W166" s="29"/>
+      <c r="X166" s="28"/>
+      <c r="Y166" s="29"/>
+      <c r="Z166" s="28"/>
+      <c r="AA166" s="29"/>
+      <c r="AB166" s="28"/>
+      <c r="AC166" s="29"/>
+      <c r="AD166" s="28"/>
+      <c r="AE166" s="29"/>
+      <c r="AF166" s="28"/>
+      <c r="AG166" s="29"/>
+    </row>
+    <row r="167" spans="4:33" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D167" s="30"/>
+      <c r="E167" s="27"/>
+      <c r="F167" s="26"/>
+      <c r="G167" s="27"/>
+      <c r="H167" s="26"/>
+      <c r="I167" s="27"/>
+      <c r="J167" s="28"/>
+      <c r="K167" s="29"/>
+      <c r="L167" s="28"/>
+      <c r="M167" s="29"/>
+      <c r="N167" s="28"/>
+      <c r="O167" s="29"/>
+      <c r="P167" s="28"/>
+      <c r="Q167" s="29"/>
+      <c r="R167" s="28"/>
+      <c r="S167" s="29"/>
+      <c r="T167" s="28"/>
+      <c r="U167" s="29"/>
+      <c r="V167" s="28"/>
+      <c r="W167" s="29"/>
+      <c r="X167" s="28"/>
+      <c r="Y167" s="29"/>
+      <c r="Z167" s="28"/>
+      <c r="AA167" s="29"/>
+      <c r="AB167" s="28"/>
+      <c r="AC167" s="29"/>
+      <c r="AD167" s="28"/>
+      <c r="AE167" s="29"/>
+      <c r="AF167" s="28"/>
+      <c r="AG167" s="29"/>
+    </row>
+    <row r="168" spans="4:33" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D168" s="30"/>
+      <c r="E168" s="27"/>
+      <c r="F168" s="26"/>
+      <c r="G168" s="27"/>
+      <c r="H168" s="26"/>
+      <c r="I168" s="27"/>
+      <c r="J168" s="28"/>
+      <c r="K168" s="29"/>
+      <c r="L168" s="28"/>
+      <c r="M168" s="29"/>
+      <c r="N168" s="28"/>
+      <c r="O168" s="29"/>
+      <c r="P168" s="28"/>
+      <c r="Q168" s="29"/>
+      <c r="R168" s="28"/>
+      <c r="S168" s="29"/>
+      <c r="T168" s="28"/>
+      <c r="U168" s="29"/>
+      <c r="V168" s="28"/>
+      <c r="W168" s="29"/>
+      <c r="X168" s="28"/>
+      <c r="Y168" s="29"/>
+      <c r="Z168" s="28"/>
+      <c r="AA168" s="29"/>
+      <c r="AB168" s="28"/>
+      <c r="AC168" s="29"/>
+      <c r="AD168" s="28"/>
+      <c r="AE168" s="29"/>
+      <c r="AF168" s="28"/>
+      <c r="AG168" s="29"/>
+    </row>
+    <row r="169" spans="4:33" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D169" s="30"/>
+      <c r="E169" s="27"/>
+      <c r="F169" s="26"/>
+      <c r="G169" s="27"/>
+      <c r="H169" s="26"/>
+      <c r="I169" s="27"/>
+      <c r="J169" s="28"/>
+      <c r="K169" s="29"/>
+      <c r="L169" s="28"/>
+      <c r="M169" s="29"/>
+      <c r="N169" s="28"/>
+      <c r="O169" s="29"/>
+      <c r="P169" s="28"/>
+      <c r="Q169" s="29"/>
+      <c r="R169" s="28"/>
+      <c r="S169" s="29"/>
+      <c r="T169" s="28"/>
+      <c r="U169" s="29"/>
+      <c r="V169" s="28"/>
+      <c r="W169" s="29"/>
+      <c r="X169" s="28"/>
+      <c r="Y169" s="29"/>
+      <c r="Z169" s="28"/>
+      <c r="AA169" s="29"/>
+      <c r="AB169" s="28"/>
+      <c r="AC169" s="29"/>
+      <c r="AD169" s="28"/>
+      <c r="AE169" s="29"/>
+      <c r="AF169" s="28"/>
+      <c r="AG169" s="29"/>
+    </row>
+    <row r="170" spans="4:33" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D170" s="30"/>
+      <c r="E170" s="27"/>
+      <c r="F170" s="26"/>
+      <c r="G170" s="27"/>
+      <c r="H170" s="26"/>
+      <c r="I170" s="27"/>
+      <c r="J170" s="28"/>
+      <c r="K170" s="29"/>
+      <c r="L170" s="28"/>
+      <c r="M170" s="29"/>
+      <c r="N170" s="28"/>
+      <c r="O170" s="29"/>
+      <c r="P170" s="28"/>
+      <c r="Q170" s="29"/>
+      <c r="R170" s="28"/>
+      <c r="S170" s="29"/>
+      <c r="T170" s="28"/>
+      <c r="U170" s="29"/>
+      <c r="V170" s="28"/>
+      <c r="W170" s="29"/>
+      <c r="X170" s="28"/>
+      <c r="Y170" s="29"/>
+      <c r="Z170" s="28"/>
+      <c r="AA170" s="29"/>
+      <c r="AB170" s="28"/>
+      <c r="AC170" s="29"/>
+      <c r="AD170" s="28"/>
+      <c r="AE170" s="29"/>
+      <c r="AF170" s="28"/>
+      <c r="AG170" s="29"/>
+    </row>
+    <row r="171" spans="4:33" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D171" s="30"/>
+      <c r="E171" s="27"/>
+      <c r="F171" s="26"/>
+      <c r="G171" s="27"/>
+      <c r="H171" s="26"/>
+      <c r="I171" s="27"/>
+      <c r="J171" s="28"/>
+      <c r="K171" s="29"/>
+      <c r="L171" s="28"/>
+      <c r="M171" s="29"/>
+      <c r="N171" s="28"/>
+      <c r="O171" s="29"/>
+      <c r="P171" s="28"/>
+      <c r="Q171" s="29"/>
+      <c r="R171" s="28"/>
+      <c r="S171" s="29"/>
+      <c r="T171" s="28"/>
+      <c r="U171" s="29"/>
+      <c r="V171" s="28"/>
+      <c r="W171" s="29"/>
+      <c r="X171" s="28"/>
+      <c r="Y171" s="29"/>
+      <c r="Z171" s="28"/>
+      <c r="AA171" s="29"/>
+      <c r="AB171" s="28"/>
+      <c r="AC171" s="29"/>
+      <c r="AD171" s="28"/>
+      <c r="AE171" s="29"/>
+      <c r="AF171" s="28"/>
+      <c r="AG171" s="29"/>
+    </row>
+    <row r="172" spans="4:33" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D172" s="30"/>
+      <c r="E172" s="27"/>
+      <c r="F172" s="26"/>
+      <c r="G172" s="27"/>
+      <c r="H172" s="26"/>
+      <c r="I172" s="27"/>
+      <c r="J172" s="28"/>
+      <c r="K172" s="29"/>
+      <c r="L172" s="28"/>
+      <c r="M172" s="29"/>
+      <c r="N172" s="28"/>
+      <c r="O172" s="29"/>
+      <c r="P172" s="28"/>
+      <c r="Q172" s="29"/>
+      <c r="R172" s="28"/>
+      <c r="S172" s="29"/>
+      <c r="T172" s="28"/>
+      <c r="U172" s="29"/>
+      <c r="V172" s="28"/>
+      <c r="W172" s="29"/>
+      <c r="X172" s="28"/>
+      <c r="Y172" s="29"/>
+      <c r="Z172" s="28"/>
+      <c r="AA172" s="29"/>
+      <c r="AB172" s="28"/>
+      <c r="AC172" s="29"/>
+      <c r="AD172" s="28"/>
+      <c r="AE172" s="29"/>
+      <c r="AF172" s="28"/>
+      <c r="AG172" s="29"/>
+    </row>
+    <row r="173" spans="4:33" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D173" s="30"/>
+      <c r="E173" s="27"/>
+      <c r="F173" s="26"/>
+      <c r="G173" s="27"/>
+      <c r="H173" s="26"/>
+      <c r="I173" s="27"/>
+      <c r="J173" s="28"/>
+      <c r="K173" s="29"/>
+      <c r="L173" s="28"/>
+      <c r="M173" s="29"/>
+      <c r="N173" s="28"/>
+      <c r="O173" s="29"/>
+      <c r="P173" s="28"/>
+      <c r="Q173" s="29"/>
+      <c r="R173" s="28"/>
+      <c r="S173" s="29"/>
+      <c r="T173" s="28"/>
+      <c r="U173" s="29"/>
+      <c r="V173" s="28"/>
+      <c r="W173" s="29"/>
+      <c r="X173" s="28"/>
+      <c r="Y173" s="29"/>
+      <c r="Z173" s="28"/>
+      <c r="AA173" s="29"/>
+      <c r="AB173" s="28"/>
+      <c r="AC173" s="29"/>
+      <c r="AD173" s="28"/>
+      <c r="AE173" s="29"/>
+      <c r="AF173" s="28"/>
+      <c r="AG173" s="29"/>
+    </row>
+    <row r="174" spans="4:33" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D174" s="30"/>
+      <c r="E174" s="27"/>
+      <c r="F174" s="26"/>
+      <c r="G174" s="27"/>
+      <c r="H174" s="26"/>
+      <c r="I174" s="27"/>
+      <c r="J174" s="28"/>
+      <c r="K174" s="29"/>
+      <c r="L174" s="28"/>
+      <c r="M174" s="29"/>
+      <c r="N174" s="28"/>
+      <c r="O174" s="29"/>
+      <c r="P174" s="28"/>
+      <c r="Q174" s="29"/>
+      <c r="R174" s="28"/>
+      <c r="S174" s="29"/>
+      <c r="T174" s="28"/>
+      <c r="U174" s="29"/>
+      <c r="V174" s="28"/>
+      <c r="W174" s="29"/>
+      <c r="X174" s="28"/>
+      <c r="Y174" s="29"/>
+      <c r="Z174" s="28"/>
+      <c r="AA174" s="29"/>
+      <c r="AB174" s="28"/>
+      <c r="AC174" s="29"/>
+      <c r="AD174" s="28"/>
+      <c r="AE174" s="29"/>
+      <c r="AF174" s="28"/>
+      <c r="AG174" s="29"/>
+    </row>
+    <row r="175" spans="4:33" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D175" s="30"/>
+      <c r="E175" s="27"/>
+      <c r="F175" s="26"/>
+      <c r="G175" s="27"/>
+      <c r="H175" s="26"/>
+      <c r="I175" s="27"/>
+      <c r="J175" s="28"/>
+      <c r="K175" s="29"/>
+      <c r="L175" s="28"/>
+      <c r="M175" s="29"/>
+      <c r="N175" s="28"/>
+      <c r="O175" s="29"/>
+      <c r="P175" s="28"/>
+      <c r="Q175" s="29"/>
+      <c r="R175" s="28"/>
+      <c r="S175" s="29"/>
+      <c r="T175" s="28"/>
+      <c r="U175" s="29"/>
+      <c r="V175" s="28"/>
+      <c r="W175" s="29"/>
+      <c r="X175" s="28"/>
+      <c r="Y175" s="29"/>
+      <c r="Z175" s="28"/>
+      <c r="AA175" s="29"/>
+      <c r="AB175" s="28"/>
+      <c r="AC175" s="29"/>
+      <c r="AD175" s="28"/>
+      <c r="AE175" s="29"/>
+      <c r="AF175" s="28"/>
+      <c r="AG175" s="29"/>
+    </row>
+    <row r="176" spans="4:33" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D176" s="30"/>
+      <c r="E176" s="27"/>
+      <c r="F176" s="26"/>
+      <c r="G176" s="27"/>
+      <c r="H176" s="26"/>
+      <c r="I176" s="27"/>
+      <c r="J176" s="28"/>
+      <c r="K176" s="29"/>
+      <c r="L176" s="28"/>
+      <c r="M176" s="29"/>
+      <c r="N176" s="28"/>
+      <c r="O176" s="29"/>
+      <c r="P176" s="28"/>
+      <c r="Q176" s="29"/>
+      <c r="R176" s="28"/>
+      <c r="S176" s="29"/>
+      <c r="T176" s="28"/>
+      <c r="U176" s="29"/>
+      <c r="V176" s="28"/>
+      <c r="W176" s="29"/>
+      <c r="X176" s="28"/>
+      <c r="Y176" s="29"/>
+      <c r="Z176" s="28"/>
+      <c r="AA176" s="29"/>
+      <c r="AB176" s="28"/>
+      <c r="AC176" s="29"/>
+      <c r="AD176" s="28"/>
+      <c r="AE176" s="29"/>
+      <c r="AF176" s="28"/>
+      <c r="AG176" s="29"/>
+    </row>
+    <row r="177" spans="4:33" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D177" s="30"/>
+      <c r="E177" s="27"/>
+      <c r="F177" s="26"/>
+      <c r="G177" s="27"/>
+      <c r="H177" s="26"/>
+      <c r="I177" s="27"/>
+      <c r="J177" s="28"/>
+      <c r="K177" s="29"/>
+      <c r="L177" s="28"/>
+      <c r="M177" s="29"/>
+      <c r="N177" s="28"/>
+      <c r="O177" s="29"/>
+      <c r="P177" s="28"/>
+      <c r="Q177" s="29"/>
+      <c r="R177" s="28"/>
+      <c r="S177" s="29"/>
+      <c r="T177" s="28"/>
+      <c r="U177" s="29"/>
+      <c r="V177" s="28"/>
+      <c r="W177" s="29"/>
+      <c r="X177" s="28"/>
+      <c r="Y177" s="29"/>
+      <c r="Z177" s="28"/>
+      <c r="AA177" s="29"/>
+      <c r="AB177" s="28"/>
+      <c r="AC177" s="29"/>
+      <c r="AD177" s="28"/>
+      <c r="AE177" s="29"/>
+      <c r="AF177" s="28"/>
+      <c r="AG177" s="29"/>
+    </row>
+    <row r="178" spans="4:33" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D178" s="30"/>
+      <c r="E178" s="27"/>
+      <c r="F178" s="26"/>
+      <c r="G178" s="27"/>
+      <c r="H178" s="26"/>
+      <c r="I178" s="27"/>
+      <c r="J178" s="28"/>
+      <c r="K178" s="29"/>
+      <c r="L178" s="28"/>
+      <c r="M178" s="29"/>
+      <c r="N178" s="28"/>
+      <c r="O178" s="29"/>
+      <c r="P178" s="28"/>
+      <c r="Q178" s="29"/>
+      <c r="R178" s="28"/>
+      <c r="S178" s="29"/>
+      <c r="T178" s="28"/>
+      <c r="U178" s="29"/>
+      <c r="V178" s="28"/>
+      <c r="W178" s="29"/>
+      <c r="X178" s="28"/>
+      <c r="Y178" s="29"/>
+      <c r="Z178" s="28"/>
+      <c r="AA178" s="29"/>
+      <c r="AB178" s="28"/>
+      <c r="AC178" s="29"/>
+      <c r="AD178" s="28"/>
+      <c r="AE178" s="29"/>
+      <c r="AF178" s="28"/>
+      <c r="AG178" s="29"/>
+    </row>
+    <row r="179" spans="4:33" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D179" s="30"/>
+      <c r="E179" s="27"/>
+      <c r="F179" s="26"/>
+      <c r="G179" s="27"/>
+      <c r="H179" s="26"/>
+      <c r="I179" s="27"/>
+      <c r="J179" s="28"/>
+      <c r="K179" s="29"/>
+      <c r="L179" s="28"/>
+      <c r="M179" s="29"/>
+      <c r="N179" s="28"/>
+      <c r="O179" s="29"/>
+      <c r="P179" s="28"/>
+      <c r="Q179" s="29"/>
+      <c r="R179" s="28"/>
+      <c r="S179" s="29"/>
+      <c r="T179" s="28"/>
+      <c r="U179" s="29"/>
+      <c r="V179" s="28"/>
+      <c r="W179" s="29"/>
+      <c r="X179" s="28"/>
+      <c r="Y179" s="29"/>
+      <c r="Z179" s="28"/>
+      <c r="AA179" s="29"/>
+      <c r="AB179" s="28"/>
+      <c r="AC179" s="29"/>
+      <c r="AD179" s="28"/>
+      <c r="AE179" s="29"/>
+      <c r="AF179" s="28"/>
+      <c r="AG179" s="29"/>
+    </row>
+    <row r="180" spans="4:33" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D180" s="31"/>
+      <c r="E180" s="32"/>
+      <c r="F180" s="33"/>
+      <c r="G180" s="32"/>
+      <c r="H180" s="33"/>
+      <c r="I180" s="32"/>
+      <c r="J180" s="34"/>
+      <c r="K180" s="35"/>
+      <c r="L180" s="34"/>
+      <c r="M180" s="35"/>
+      <c r="N180" s="34"/>
+      <c r="O180" s="35"/>
+      <c r="P180" s="34"/>
+      <c r="Q180" s="35"/>
+      <c r="R180" s="34"/>
+      <c r="S180" s="35"/>
+      <c r="T180" s="34"/>
+      <c r="U180" s="35"/>
+      <c r="V180" s="34"/>
+      <c r="W180" s="35"/>
+      <c r="X180" s="34"/>
+      <c r="Y180" s="35"/>
+      <c r="Z180" s="34"/>
+      <c r="AA180" s="35"/>
+      <c r="AB180" s="34"/>
+      <c r="AC180" s="35"/>
+      <c r="AD180" s="34"/>
+      <c r="AE180" s="35"/>
+      <c r="AF180" s="34"/>
+      <c r="AG180" s="35"/>
+    </row>
+    <row r="181" spans="4:33" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D181" s="6"/>
       <c r="E181" s="7"/>
       <c r="F181" s="7"/>
@@ -13678,7 +15406,7 @@
       <c r="H181" s="7"/>
       <c r="I181" s="7"/>
     </row>
-    <row r="182" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="182" spans="4:33" x14ac:dyDescent="0.3">
       <c r="D182" s="6"/>
       <c r="E182" s="7"/>
       <c r="F182" s="7"/>
@@ -13686,7 +15414,7 @@
       <c r="H182" s="7"/>
       <c r="I182" s="7"/>
     </row>
-    <row r="183" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="183" spans="4:33" x14ac:dyDescent="0.3">
       <c r="D183" s="6"/>
       <c r="E183" s="7"/>
       <c r="F183" s="7"/>
@@ -13694,7 +15422,7 @@
       <c r="H183" s="7"/>
       <c r="I183" s="7"/>
     </row>
-    <row r="184" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="184" spans="4:33" x14ac:dyDescent="0.3">
       <c r="D184" s="6"/>
       <c r="E184" s="7"/>
       <c r="F184" s="7"/>
@@ -13702,7 +15430,7 @@
       <c r="H184" s="7"/>
       <c r="I184" s="7"/>
     </row>
-    <row r="185" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="185" spans="4:33" x14ac:dyDescent="0.3">
       <c r="D185" s="6"/>
       <c r="E185" s="7"/>
       <c r="F185" s="7"/>
@@ -13710,7 +15438,7 @@
       <c r="H185" s="7"/>
       <c r="I185" s="7"/>
     </row>
-    <row r="186" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="186" spans="4:33" x14ac:dyDescent="0.3">
       <c r="D186" s="6"/>
       <c r="E186" s="7"/>
       <c r="F186" s="7"/>
@@ -13718,7 +15446,7 @@
       <c r="H186" s="7"/>
       <c r="I186" s="7"/>
     </row>
-    <row r="187" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="187" spans="4:33" x14ac:dyDescent="0.3">
       <c r="D187" s="6"/>
       <c r="E187" s="7"/>
       <c r="F187" s="7"/>
@@ -13726,7 +15454,7 @@
       <c r="H187" s="7"/>
       <c r="I187" s="7"/>
     </row>
-    <row r="188" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="188" spans="4:33" x14ac:dyDescent="0.3">
       <c r="D188" s="6"/>
       <c r="E188" s="7"/>
       <c r="F188" s="7"/>
@@ -13734,7 +15462,7 @@
       <c r="H188" s="7"/>
       <c r="I188" s="7"/>
     </row>
-    <row r="189" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="189" spans="4:33" x14ac:dyDescent="0.3">
       <c r="D189" s="6"/>
       <c r="E189" s="7"/>
       <c r="F189" s="7"/>
@@ -13742,7 +15470,7 @@
       <c r="H189" s="7"/>
       <c r="I189" s="7"/>
     </row>
-    <row r="190" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="190" spans="4:33" x14ac:dyDescent="0.3">
       <c r="D190" s="6"/>
       <c r="E190" s="7"/>
       <c r="F190" s="7"/>
@@ -13750,7 +15478,7 @@
       <c r="H190" s="7"/>
       <c r="I190" s="7"/>
     </row>
-    <row r="191" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="191" spans="4:33" x14ac:dyDescent="0.3">
       <c r="D191" s="6"/>
       <c r="E191" s="7"/>
       <c r="F191" s="7"/>
@@ -13758,7 +15486,7 @@
       <c r="H191" s="7"/>
       <c r="I191" s="7"/>
     </row>
-    <row r="192" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="192" spans="4:33" x14ac:dyDescent="0.3">
       <c r="D192" s="6"/>
       <c r="E192" s="7"/>
       <c r="F192" s="7"/>
@@ -34776,10 +36504,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="D63:AG63"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="AF7:AG7"/>
-    <mergeCell ref="AD7:AE7"/>
     <mergeCell ref="D5:I6"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:G7"/>
@@ -34794,6 +36518,10 @@
     <mergeCell ref="Z7:AA7"/>
     <mergeCell ref="T7:U7"/>
     <mergeCell ref="V7:W7"/>
+    <mergeCell ref="D63:AG63"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="AF7:AG7"/>
+    <mergeCell ref="AD7:AE7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
